--- a/Fisica-Experimental/Semama.6.1.xlsx
+++ b/Fisica-Experimental/Semama.6.1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\4to_ciclo\F.Experimental\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programacion_y_mucho_mas\MyGithub\r-probability-and-statistics\Fisica-Experimental\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11505" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="disco_naranja" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
   <si>
     <t>t</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>angulo.r</t>
+  </si>
+  <si>
+    <t>θ</t>
   </si>
 </sst>
 </file>
@@ -381,15 +384,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,1048 +412,1587 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.23223150000000001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-0.51539500000000005</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-65.74418</v>
+      </c>
+      <c r="H2" s="1">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>3.3366699999999999E-2</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.219469</v>
-      </c>
-      <c r="C2" s="1">
-        <v>-0.46959240000000002</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="B3" s="1">
+        <v>0.2208938</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-0.47128239999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-0.4261354</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.420887</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.483412</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-64.887140000000002</v>
+      </c>
+      <c r="H3" s="1">
         <v>615</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>6.6733399999999998E-2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>0.203794</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <v>-0.42057440000000001</v>
       </c>
-      <c r="D3" s="1">
-        <v>-0.37930229999999998</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1.4787090000000001</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1.526581</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="D4" s="1">
+        <v>-0.40065269999999997</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.504032</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.5564819999999999</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-64.146969999999996</v>
+      </c>
+      <c r="H4" s="1">
         <v>616</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>0.1001001</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <v>0.19415689999999999</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <v>-0.3709132</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="1">
         <v>-0.3540143</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E5" s="1">
         <v>1.4401489999999999</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F5" s="1">
         <v>1.483023</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G5" s="1">
+        <v>-62.369900000000001</v>
+      </c>
+      <c r="H5" s="1">
         <v>617</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>0.1334668</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>0.18016940000000001</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>-0.32446829999999999</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="1">
         <v>-0.38269189999999997</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="1">
         <v>1.401195</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F6" s="1">
         <v>1.4525159999999999</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G6" s="1">
+        <v>-60.957639999999998</v>
+      </c>
+      <c r="H6" s="1">
         <v>618</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>0.1668335</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>0.1686185</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>-0.2774066</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <v>-0.36813170000000001</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <v>1.392919</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F7" s="1">
         <v>1.440744</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G7" s="1">
+        <v>-58.707140000000003</v>
+      </c>
+      <c r="H7" s="1">
         <v>619</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>0.20020019999999999</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>0.15560280000000001</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>-0.2315141</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <v>-0.3603093</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="1">
         <v>1.4407209999999999</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F8" s="1">
         <v>1.485093</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G8" s="1">
+        <v>-56.094589999999997</v>
+      </c>
+      <c r="H8" s="1">
         <v>620</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>0.23356689999999999</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>0.14457390000000001</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <v>-0.18126239999999999</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="1">
         <v>-0.3473347</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="1">
         <v>1.4105639999999999</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F9" s="1">
         <v>1.452698</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G9" s="1">
+        <v>-51.424340000000001</v>
+      </c>
+      <c r="H9" s="1">
         <v>621</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>0.26693359999999999</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>0.13242390000000001</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <v>-0.13738230000000001</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <v>-0.36147200000000002</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E10" s="1">
         <v>1.377148</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F10" s="1">
         <v>1.4237979999999999</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G10" s="1">
+        <v>-46.052849999999999</v>
+      </c>
+      <c r="H10" s="1">
         <v>622</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>0.30030030000000002</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <v>0.12045160000000001</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>-8.9360629999999996E-2</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="1">
         <v>-0.3313025</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E11" s="1">
         <v>1.4666440000000001</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F11" s="1">
         <v>1.503598</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G11" s="1">
+        <v>-36.570979999999999</v>
+      </c>
+      <c r="H11" s="1">
         <v>623</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>0.33366699999999999</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
         <v>0.110315</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <v>-3.95082E-2</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <v>-1.26576E-2</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <v>1.0880430000000001</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F12" s="1">
         <v>1.088117</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G12" s="1">
+        <v>-19.704470000000001</v>
+      </c>
+      <c r="H12" s="1">
         <v>624</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>0.36703370000000002</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="1">
         <v>0.1196069</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>-1.6751809999999999E-2</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="1">
         <v>0.12847500000000001</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="1">
         <v>0.71624129999999997</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F13" s="1">
         <v>0.7276726</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G13" s="1">
+        <v>-7.972823</v>
+      </c>
+      <c r="H13" s="1">
         <v>625</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>0.40040039999999999</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B14" s="1">
         <v>0.1188886</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <v>8.2890159999999997E-3</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D14" s="1">
         <v>-3.6140100000000001E-2</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E14" s="1">
         <v>0.74129590000000001</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F14" s="1">
         <v>0.74217639999999996</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G14" s="1">
+        <v>3.9882590000000002</v>
+      </c>
+      <c r="H14" s="1">
         <v>626</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>0.43376710000000002</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B15" s="1">
         <v>0.1171952</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="1">
         <v>3.2717389999999999E-2</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D15" s="1">
         <v>-0.1736057</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E15" s="1">
         <v>0.71676799999999996</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F15" s="1">
         <v>0.73749260000000005</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G15" s="1">
+        <v>15.59815</v>
+      </c>
+      <c r="H15" s="1">
         <v>627</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>0.46713379999999999</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B16" s="1">
         <v>0.1073033</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C16" s="1">
         <v>5.6121379999999998E-2</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D16" s="1">
         <v>-0.39626820000000001</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E16" s="1">
         <v>0.67260629999999999</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F16" s="1">
         <v>0.78065850000000003</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G16" s="1">
+        <v>27.610309999999998</v>
+      </c>
+      <c r="H16" s="1">
         <v>628</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>0.50050050000000001</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B17" s="1">
         <v>9.0750849999999994E-2</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <v>7.7602699999999997E-2</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D17" s="1">
         <v>-0.48771439999999999</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E17" s="1">
         <v>0.60364320000000005</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F17" s="1">
         <v>0.77604799999999996</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G17" s="1">
+        <v>40.534350000000003</v>
+      </c>
+      <c r="H17" s="1">
         <v>629</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>0.53386719999999999</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B18" s="1">
         <v>7.4756420000000004E-2</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="1">
         <v>9.6404539999999997E-2</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D18" s="1">
         <v>-0.59505680000000005</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E18" s="1">
         <v>0.50920540000000003</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F18" s="1">
         <v>0.78318759999999998</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G18" s="1">
+        <v>52.208390000000001</v>
+      </c>
+      <c r="H18" s="1">
         <v>630</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>0.56723389999999996</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19" s="1">
         <v>5.1040679999999998E-2</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <v>0.11158369999999999</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D19" s="1">
         <v>-0.69054660000000001</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E19" s="1">
         <v>0.33204919999999999</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F19" s="1">
         <v>0.76623180000000002</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G19" s="1">
+        <v>65.419669999999996</v>
+      </c>
+      <c r="H19" s="1">
         <v>631</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>0.60060060000000004</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B20" s="1">
         <v>2.8673899999999999E-2</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C20" s="1">
         <v>0.1185633</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D20" s="1">
         <v>-0.73747180000000001</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E20" s="1">
         <v>0.13647580000000001</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F20" s="1">
         <v>0.74999349999999998</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G20" s="1">
+        <v>76.404380000000003</v>
+      </c>
+      <c r="H20" s="1">
         <v>632</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>0.63396730000000001</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="1">
         <v>1.8266809999999999E-3</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="1">
         <v>0.1206912</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D21" s="1">
         <v>-0.80489560000000004</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E21" s="1">
         <v>-1.282346E-2</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F21" s="1">
         <v>0.80499779999999999</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G21" s="1">
+        <v>89.132890000000003</v>
+      </c>
+      <c r="H21" s="1">
         <v>633</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>0.66733399999999998</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>-2.5039530000000001E-2</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <v>0.1177076</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D22" s="1">
         <v>-0.7591502</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E22" s="1">
         <v>-0.13579369999999999</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F22" s="1">
         <v>0.77119970000000004</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G22" s="1">
+        <v>102.0093</v>
+      </c>
+      <c r="H22" s="1">
         <v>634</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>0.70070069999999995</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="1">
         <v>-4.8833990000000001E-2</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="1">
         <v>0.1116292</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D23" s="1">
         <v>-0.68915539999999997</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E23" s="1">
         <v>-0.27708830000000001</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F23" s="1">
         <v>0.74277389999999999</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G23" s="1">
+        <v>113.6277</v>
+      </c>
+      <c r="H23" s="1">
         <v>635</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>0.73406740000000004</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B24" s="1">
         <v>-7.1029209999999995E-2</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C24" s="1">
         <v>9.9216520000000002E-2</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D24" s="1">
         <v>-0.61323369999999999</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E24" s="1">
         <v>-0.45974209999999999</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F24" s="1">
         <v>0.76643229999999996</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G24" s="1">
+        <v>125.5989</v>
+      </c>
+      <c r="H24" s="1">
         <v>636</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>0.76743410000000001</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B25" s="1">
         <v>-8.9757160000000002E-2</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="1">
         <v>8.0949069999999998E-2</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D25" s="1">
         <v>-0.60836699999999999</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E25" s="1">
         <v>-0.78925710000000004</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F25" s="1">
         <v>0.99651250000000002</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G25" s="1">
+        <v>137.9537</v>
+      </c>
+      <c r="H25" s="1">
         <v>637</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>0.80080079999999998</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B26" s="1">
         <v>-0.11162759999999999</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C26" s="1">
         <v>4.6546700000000003E-2</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D26" s="1">
         <v>-0.44687100000000002</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E26" s="1">
         <v>-0.84578339999999996</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F26" s="1">
         <v>0.95657890000000001</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G26" s="1">
+        <v>157.3647</v>
+      </c>
+      <c r="H26" s="1">
         <v>638</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>0.83416749999999995</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B27" s="1">
         <v>-0.1195784</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C27" s="1">
         <v>2.4507069999999999E-2</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D27" s="1">
         <v>-0.1642961</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E27" s="1">
         <v>-0.70821829999999997</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F27" s="1">
         <v>0.72702580000000006</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G27" s="1">
+        <v>168.4179</v>
+      </c>
+      <c r="H27" s="1">
         <v>639</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>0.86753420000000003</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B28" s="1">
         <v>-0.1225916</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C28" s="1">
         <v>-7.1511350000000003E-4</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D28" s="1">
         <v>-1.4937279999999999E-3</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E28" s="1">
         <v>-0.74042859999999999</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F28" s="1">
         <v>0.74043009999999998</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G28" s="1">
+        <v>180.33420000000001</v>
+      </c>
+      <c r="H28" s="1">
         <v>640</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>0.9009009</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B29" s="1">
         <v>-0.1196781</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C29" s="1">
         <v>-2.4904249999999999E-2</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D29" s="1">
         <v>0.1443952</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E29" s="1">
         <v>-0.74340079999999997</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F29" s="1">
         <v>0.75729429999999998</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G29" s="1">
+        <v>191.7551</v>
+      </c>
+      <c r="H29" s="1">
         <v>641</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>0.93426759999999998</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B30" s="1">
         <v>-0.11295570000000001</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C30" s="1">
         <v>-5.032478E-2</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D30" s="1">
         <v>0.3085967</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E30" s="1">
         <v>-0.72577530000000001</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F30" s="1">
         <v>0.78865810000000003</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G30" s="1">
+        <v>204.01429999999999</v>
+      </c>
+      <c r="H30" s="1">
         <v>642</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>0.96763429999999995</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B31" s="1">
         <v>-9.9084359999999996E-2</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C31" s="1">
         <v>-7.3337700000000006E-2</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D31" s="1">
         <v>0.44921870000000003</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E31" s="1">
         <v>-0.61681299999999994</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F31" s="1">
         <v>0.76305690000000004</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G31" s="1">
+        <v>216.50710000000001</v>
+      </c>
+      <c r="H31" s="1">
         <v>643</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>1.001001</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B32" s="1">
         <v>-8.2977770000000006E-2</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C32" s="1">
         <v>-9.1486810000000002E-2</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D32" s="1">
         <v>0.55534490000000003</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E32" s="1">
         <v>-0.48246549999999999</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F32" s="1">
         <v>0.73565000000000003</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G32" s="1">
+        <v>227.79220000000001</v>
+      </c>
+      <c r="H32" s="1">
         <v>644</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>1.034368</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B33" s="1">
         <v>-6.2024309999999999E-2</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C33" s="1">
         <v>-0.1055343</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D33" s="1">
         <v>0.68464440000000004</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E33" s="1">
         <v>-0.36880180000000001</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F33" s="1">
         <v>0.77765850000000003</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G33" s="1">
+        <v>239.5565</v>
+      </c>
+      <c r="H33" s="1">
         <v>645</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>1.067734</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B34" s="1">
         <v>-3.7289120000000002E-2</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C34" s="1">
         <v>-0.1160982</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D34" s="1">
         <v>0.76982010000000001</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E34" s="1">
         <v>-0.2158368</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F34" s="1">
         <v>0.79950520000000003</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G34" s="1">
+        <v>252.19370000000001</v>
+      </c>
+      <c r="H34" s="1">
         <v>646</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>1.1011010000000001</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B35" s="1">
         <v>-1.0651590000000001E-2</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C35" s="1">
         <v>-0.1199378</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D35" s="1">
         <v>0.77443870000000004</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E35" s="1">
         <v>-6.6429630000000003E-2</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F35" s="1">
         <v>0.77728260000000005</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G35" s="1">
+        <v>264.92489999999998</v>
+      </c>
+      <c r="H35" s="1">
         <v>647</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>1.134468</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B36" s="1">
         <v>1.439181E-2</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C36" s="1">
         <v>-0.12053129999999999</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D36" s="1">
         <v>0.75703750000000003</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E36" s="1">
         <v>0.1026442</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F36" s="1">
         <v>0.76396439999999999</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G36" s="1">
+        <v>276.8091</v>
+      </c>
+      <c r="H36" s="1">
         <v>648</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>1.167835</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B37" s="1">
         <v>3.9868090000000002E-2</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C37" s="1">
         <v>-0.11308799999999999</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D37" s="1">
         <v>0.72816360000000002</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E37" s="1">
         <v>0.24123349999999999</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F37" s="1">
         <v>0.76708270000000001</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G37" s="1">
+        <v>289.4196</v>
+      </c>
+      <c r="H37" s="1">
         <v>649</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>1.201201</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B38" s="1">
         <v>6.2984639999999995E-2</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C38" s="1">
         <v>-0.1044329</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D38" s="1">
         <v>0.64157969999999998</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E38" s="1">
         <v>0.35429670000000002</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F38" s="1">
         <v>0.73290569999999999</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G38" s="1">
+        <v>301.09460000000001</v>
+      </c>
+      <c r="H38" s="1">
         <v>650</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>1.2345680000000001</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B39" s="1">
         <v>8.2682889999999995E-2</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C39" s="1">
         <v>-8.9444570000000001E-2</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D39" s="1">
         <v>0.55067330000000003</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E39" s="1">
         <v>0.5107254</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F39" s="1">
         <v>0.75105359999999999</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G39" s="1">
+        <v>312.75040000000001</v>
+      </c>
+      <c r="H39" s="1">
         <v>651</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>1.267935</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B40" s="1">
         <v>9.9732940000000006E-2</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C40" s="1">
         <v>-7.0350510000000005E-2</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D40" s="1">
         <v>0.45407039999999999</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E40" s="1">
         <v>0.62164109999999995</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F40" s="1">
         <v>0.76981659999999996</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G40" s="1">
+        <v>324.80130000000003</v>
+      </c>
+      <c r="H40" s="1">
         <v>652</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>1.301301</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B41" s="1">
         <v>0.1129846</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C41" s="1">
         <v>-4.7960339999999997E-2</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D41" s="1">
         <v>0.31635780000000002</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E41" s="1">
         <v>0.71665730000000005</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F41" s="1">
         <v>0.78337730000000005</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G41" s="1">
+        <v>336.99950000000001</v>
+      </c>
+      <c r="H41" s="1">
         <v>653</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>1.334668</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B42" s="1">
         <v>0.1208446</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C42" s="1">
         <v>-2.252552E-2</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D42" s="1">
         <v>0.13584589999999999</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E42" s="1">
         <v>0.73451750000000005</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F42" s="1">
         <v>0.74697389999999997</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G42" s="1">
+        <v>349.44119999999998</v>
+      </c>
+      <c r="H42" s="1">
         <v>654</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>1.3680349999999999</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B43" s="1">
         <v>0.12205000000000001</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C43" s="1">
         <v>1.0565049999999999E-3</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D43" s="1">
         <v>-1.198103E-2</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E43" s="1">
         <v>0.71443509999999999</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F43" s="1">
         <v>0.71453560000000005</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G43" s="1">
+        <v>360.49599999999998</v>
+      </c>
+      <c r="H43" s="1">
         <v>655</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>1.4014009999999999</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B44" s="1">
         <v>0.120045</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C44" s="1">
         <v>2.5151159999999999E-2</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D44" s="1">
         <v>-0.13929510000000001</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E44" s="1">
         <v>0.71918079999999995</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F44" s="1">
         <v>0.73254629999999998</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G44" s="1">
+        <v>371.8331</v>
+      </c>
+      <c r="H44" s="1">
         <v>656</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>1.434768</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B45" s="1">
         <v>0.1127544</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C45" s="1">
         <v>4.9049879999999997E-2</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D45" s="1">
         <v>-0.27917409999999998</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E45" s="1">
         <v>0.6806236</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F45" s="1">
         <v>0.73565389999999997</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G45" s="1">
+        <v>383.50979999999998</v>
+      </c>
+      <c r="H45" s="1">
         <v>657</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>1.468135</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B46" s="1">
         <v>0.1014148</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C46" s="1">
         <v>7.0571490000000001E-2</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D46" s="1">
         <v>-0.42827470000000001</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E46" s="1">
         <v>0.59875129999999999</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F46" s="1">
         <v>0.73615370000000002</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G46" s="1">
+        <v>394.8329</v>
+      </c>
+      <c r="H46" s="1">
         <v>658</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>1.5015019999999999</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B47" s="1">
         <v>8.4174150000000003E-2</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C47" s="1">
         <v>8.9006589999999997E-2</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D47" s="1">
         <v>-0.55449809999999999</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E47" s="1">
         <v>0.50304090000000001</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F47" s="1">
         <v>0.7486777</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G47" s="1">
+        <v>406.59840000000003</v>
+      </c>
+      <c r="H47" s="1">
         <v>659</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>1.5348679999999999</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B48" s="1">
         <v>6.4411259999999998E-2</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C48" s="1">
         <v>0.1041411</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G48" s="1">
+        <v>418.26319999999998</v>
+      </c>
+      <c r="H48" s="1">
         <v>660</v>
       </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1459,15 +2001,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1487,47 +2029,61 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>-0.21132960000000001</v>
+        <v>-0.23223150000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>0.5143375</v>
+        <v>0.51539500000000005</v>
       </c>
       <c r="G2" s="1">
+        <v>114.25579999999999</v>
+      </c>
+      <c r="H2" s="1">
         <v>614</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3.3366699999999999E-2</v>
       </c>
       <c r="B3" s="1">
-        <v>-0.219469</v>
+        <v>-0.2208938</v>
       </c>
       <c r="C3" s="1">
-        <v>0.46959240000000002</v>
+        <v>0.47128239999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>0.11292099999999999</v>
+        <v>0.4261354</v>
       </c>
       <c r="E3" s="1">
-        <v>-1.4050400000000001</v>
+        <v>-1.420887</v>
       </c>
       <c r="F3" s="1">
-        <v>1.4095709999999999</v>
+        <v>1.483412</v>
       </c>
       <c r="G3" s="1">
+        <v>115.1129</v>
+      </c>
+      <c r="H3" s="1">
         <v>615</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>6.6733399999999998E-2</v>
       </c>
@@ -1538,19 +2094,30 @@
         <v>0.42057440000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>0.37930229999999998</v>
+        <v>0.40065269999999997</v>
       </c>
       <c r="E4" s="1">
-        <v>-1.4787090000000001</v>
+        <v>-1.504032</v>
       </c>
       <c r="F4" s="1">
-        <v>1.526581</v>
+        <v>1.5564819999999999</v>
       </c>
       <c r="G4" s="1">
+        <v>115.85299999999999</v>
+      </c>
+      <c r="H4" s="1">
         <v>616</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.1001001</v>
       </c>
@@ -1570,10 +2137,21 @@
         <v>1.483023</v>
       </c>
       <c r="G5" s="1">
+        <v>117.6301</v>
+      </c>
+      <c r="H5" s="1">
         <v>617</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.1334668</v>
       </c>
@@ -1593,10 +2171,21 @@
         <v>1.4525159999999999</v>
       </c>
       <c r="G6" s="1">
+        <v>119.0424</v>
+      </c>
+      <c r="H6" s="1">
         <v>618</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.1668335</v>
       </c>
@@ -1616,10 +2205,21 @@
         <v>1.440744</v>
       </c>
       <c r="G7" s="1">
+        <v>121.2929</v>
+      </c>
+      <c r="H7" s="1">
         <v>619</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.20020019999999999</v>
       </c>
@@ -1639,10 +2239,21 @@
         <v>1.485093</v>
       </c>
       <c r="G8" s="1">
+        <v>123.9054</v>
+      </c>
+      <c r="H8" s="1">
         <v>620</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.23356689999999999</v>
       </c>
@@ -1662,10 +2273,21 @@
         <v>1.452698</v>
       </c>
       <c r="G9" s="1">
+        <v>128.57570000000001</v>
+      </c>
+      <c r="H9" s="1">
         <v>621</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.26693359999999999</v>
       </c>
@@ -1685,10 +2307,21 @@
         <v>1.4237979999999999</v>
       </c>
       <c r="G10" s="1">
+        <v>133.94720000000001</v>
+      </c>
+      <c r="H10" s="1">
         <v>622</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.30030030000000002</v>
       </c>
@@ -1708,10 +2341,21 @@
         <v>1.503598</v>
       </c>
       <c r="G11" s="1">
+        <v>143.429</v>
+      </c>
+      <c r="H11" s="1">
         <v>623</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.33366699999999999</v>
       </c>
@@ -1731,10 +2375,21 @@
         <v>1.088117</v>
       </c>
       <c r="G12" s="1">
+        <v>160.2955</v>
+      </c>
+      <c r="H12" s="1">
         <v>624</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.36703370000000002</v>
       </c>
@@ -1754,10 +2409,21 @@
         <v>0.7276726</v>
       </c>
       <c r="G13" s="1">
+        <v>172.02719999999999</v>
+      </c>
+      <c r="H13" s="1">
         <v>625</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.40040039999999999</v>
       </c>
@@ -1777,10 +2443,21 @@
         <v>0.74217639999999996</v>
       </c>
       <c r="G14" s="1">
+        <v>183.98830000000001</v>
+      </c>
+      <c r="H14" s="1">
         <v>626</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.43376710000000002</v>
       </c>
@@ -1800,10 +2477,21 @@
         <v>0.73749260000000005</v>
       </c>
       <c r="G15" s="1">
+        <v>195.59809999999999</v>
+      </c>
+      <c r="H15" s="1">
         <v>627</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.46713379999999999</v>
       </c>
@@ -1823,10 +2511,21 @@
         <v>0.78065850000000003</v>
       </c>
       <c r="G16" s="1">
+        <v>207.6103</v>
+      </c>
+      <c r="H16" s="1">
         <v>628</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.50050050000000001</v>
       </c>
@@ -1846,10 +2545,21 @@
         <v>0.77604799999999996</v>
       </c>
       <c r="G17" s="1">
+        <v>220.53440000000001</v>
+      </c>
+      <c r="H17" s="1">
         <v>629</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.53386719999999999</v>
       </c>
@@ -1869,10 +2579,21 @@
         <v>0.78318759999999998</v>
       </c>
       <c r="G18" s="1">
+        <v>232.20840000000001</v>
+      </c>
+      <c r="H18" s="1">
         <v>630</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.56723389999999996</v>
       </c>
@@ -1892,10 +2613,21 @@
         <v>0.76623180000000002</v>
       </c>
       <c r="G19" s="1">
+        <v>245.41970000000001</v>
+      </c>
+      <c r="H19" s="1">
         <v>631</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.60060060000000004</v>
       </c>
@@ -1915,10 +2647,21 @@
         <v>0.74999349999999998</v>
       </c>
       <c r="G20" s="1">
+        <v>256.40440000000001</v>
+      </c>
+      <c r="H20" s="1">
         <v>632</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.63396730000000001</v>
       </c>
@@ -1938,10 +2681,21 @@
         <v>0.80499779999999999</v>
       </c>
       <c r="G21" s="1">
+        <v>269.13290000000001</v>
+      </c>
+      <c r="H21" s="1">
         <v>633</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.66733399999999998</v>
       </c>
@@ -1961,10 +2715,21 @@
         <v>0.77119970000000004</v>
       </c>
       <c r="G22" s="1">
+        <v>282.0093</v>
+      </c>
+      <c r="H22" s="1">
         <v>634</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.70070069999999995</v>
       </c>
@@ -1984,10 +2749,21 @@
         <v>0.74277389999999999</v>
       </c>
       <c r="G23" s="1">
+        <v>293.6277</v>
+      </c>
+      <c r="H23" s="1">
         <v>635</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.73406740000000004</v>
       </c>
@@ -2007,10 +2783,21 @@
         <v>0.76643229999999996</v>
       </c>
       <c r="G24" s="1">
+        <v>305.59890000000001</v>
+      </c>
+      <c r="H24" s="1">
         <v>636</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.76743410000000001</v>
       </c>
@@ -2030,10 +2817,21 @@
         <v>0.99651250000000002</v>
       </c>
       <c r="G25" s="1">
+        <v>317.95370000000003</v>
+      </c>
+      <c r="H25" s="1">
         <v>637</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.80080079999999998</v>
       </c>
@@ -2053,10 +2851,21 @@
         <v>0.95657890000000001</v>
       </c>
       <c r="G26" s="1">
+        <v>337.36470000000003</v>
+      </c>
+      <c r="H26" s="1">
         <v>638</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.83416749999999995</v>
       </c>
@@ -2076,10 +2885,21 @@
         <v>0.72702580000000006</v>
       </c>
       <c r="G27" s="1">
+        <v>348.41789999999997</v>
+      </c>
+      <c r="H27" s="1">
         <v>639</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.86753420000000003</v>
       </c>
@@ -2099,10 +2919,21 @@
         <v>0.74043009999999998</v>
       </c>
       <c r="G28" s="1">
+        <v>360.33420000000001</v>
+      </c>
+      <c r="H28" s="1">
         <v>640</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.9009009</v>
       </c>
@@ -2122,10 +2953,21 @@
         <v>0.75729429999999998</v>
       </c>
       <c r="G29" s="1">
+        <v>371.75510000000003</v>
+      </c>
+      <c r="H29" s="1">
         <v>641</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.93426759999999998</v>
       </c>
@@ -2145,10 +2987,21 @@
         <v>0.78865810000000003</v>
       </c>
       <c r="G30" s="1">
+        <v>384.01429999999999</v>
+      </c>
+      <c r="H30" s="1">
         <v>642</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.96763429999999995</v>
       </c>
@@ -2168,10 +3021,21 @@
         <v>0.76305690000000004</v>
       </c>
       <c r="G31" s="1">
+        <v>396.50709999999998</v>
+      </c>
+      <c r="H31" s="1">
         <v>643</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1.001001</v>
       </c>
@@ -2191,10 +3055,21 @@
         <v>0.73565000000000003</v>
       </c>
       <c r="G32" s="1">
+        <v>407.79219999999998</v>
+      </c>
+      <c r="H32" s="1">
         <v>644</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1.034368</v>
       </c>
@@ -2214,10 +3089,21 @@
         <v>0.77765850000000003</v>
       </c>
       <c r="G33" s="1">
+        <v>419.55650000000003</v>
+      </c>
+      <c r="H33" s="1">
         <v>645</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1.067734</v>
       </c>
@@ -2237,10 +3123,21 @@
         <v>0.79950520000000003</v>
       </c>
       <c r="G34" s="1">
+        <v>432.19369999999998</v>
+      </c>
+      <c r="H34" s="1">
         <v>646</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1.1011010000000001</v>
       </c>
@@ -2260,10 +3157,21 @@
         <v>0.77728260000000005</v>
       </c>
       <c r="G35" s="1">
+        <v>444.92489999999998</v>
+      </c>
+      <c r="H35" s="1">
         <v>647</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1.134468</v>
       </c>
@@ -2283,10 +3191,21 @@
         <v>0.76396439999999999</v>
       </c>
       <c r="G36" s="1">
+        <v>456.8091</v>
+      </c>
+      <c r="H36" s="1">
         <v>648</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1.167835</v>
       </c>
@@ -2306,10 +3225,21 @@
         <v>0.76708270000000001</v>
       </c>
       <c r="G37" s="1">
+        <v>469.4196</v>
+      </c>
+      <c r="H37" s="1">
         <v>649</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1.201201</v>
       </c>
@@ -2329,10 +3259,21 @@
         <v>0.73290569999999999</v>
       </c>
       <c r="G38" s="1">
+        <v>481.09460000000001</v>
+      </c>
+      <c r="H38" s="1">
         <v>650</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1.2345680000000001</v>
       </c>
@@ -2352,10 +3293,21 @@
         <v>0.75105359999999999</v>
       </c>
       <c r="G39" s="1">
+        <v>492.75040000000001</v>
+      </c>
+      <c r="H39" s="1">
         <v>651</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1.267935</v>
       </c>
@@ -2375,10 +3327,21 @@
         <v>0.76981659999999996</v>
       </c>
       <c r="G40" s="1">
+        <v>504.80130000000003</v>
+      </c>
+      <c r="H40" s="1">
         <v>652</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1.301301</v>
       </c>
@@ -2398,10 +3361,21 @@
         <v>0.78337730000000005</v>
       </c>
       <c r="G41" s="1">
+        <v>516.99950000000001</v>
+      </c>
+      <c r="H41" s="1">
         <v>653</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1.334668</v>
       </c>
@@ -2421,10 +3395,21 @@
         <v>0.74697389999999997</v>
       </c>
       <c r="G42" s="1">
+        <v>529.44119999999998</v>
+      </c>
+      <c r="H42" s="1">
         <v>654</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1.3680349999999999</v>
       </c>
@@ -2444,10 +3429,21 @@
         <v>0.71453560000000005</v>
       </c>
       <c r="G43" s="1">
+        <v>540.49599999999998</v>
+      </c>
+      <c r="H43" s="1">
         <v>655</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1.4014009999999999</v>
       </c>
@@ -2467,10 +3463,21 @@
         <v>0.73254629999999998</v>
       </c>
       <c r="G44" s="1">
+        <v>551.83309999999994</v>
+      </c>
+      <c r="H44" s="1">
         <v>656</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1.434768</v>
       </c>
@@ -2490,10 +3497,21 @@
         <v>0.73565389999999997</v>
       </c>
       <c r="G45" s="1">
+        <v>563.50980000000004</v>
+      </c>
+      <c r="H45" s="1">
         <v>657</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1.468135</v>
       </c>
@@ -2513,10 +3531,21 @@
         <v>0.73615370000000002</v>
       </c>
       <c r="G46" s="1">
+        <v>574.8329</v>
+      </c>
+      <c r="H46" s="1">
         <v>658</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1.5015019999999999</v>
       </c>
@@ -2536,10 +3565,21 @@
         <v>0.7486777</v>
       </c>
       <c r="G47" s="1">
+        <v>586.59839999999997</v>
+      </c>
+      <c r="H47" s="1">
         <v>659</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1.5348679999999999</v>
       </c>
@@ -2550,8 +3590,26 @@
         <v>-0.1041411</v>
       </c>
       <c r="G48" s="1">
+        <v>598.26319999999998</v>
+      </c>
+      <c r="H48" s="1">
         <v>660</v>
       </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4371,7 +5429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>

--- a/Fisica-Experimental/Semama.6.1.xlsx
+++ b/Fisica-Experimental/Semama.6.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11505" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="disco_naranja" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>t</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>angulo.r</t>
-  </si>
-  <si>
-    <t>θ</t>
   </si>
 </sst>
 </file>
@@ -386,8 +383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,7 +409,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -2003,8 +2000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,7 +2026,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>

--- a/Fisica-Experimental/Semama.6.1.xlsx
+++ b/Fisica-Experimental/Semama.6.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="disco_naranja" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="21">
   <si>
     <t>t</t>
   </si>
@@ -63,6 +63,33 @@
   </si>
   <si>
     <t>angulo.r</t>
+  </si>
+  <si>
+    <t>θ</t>
+  </si>
+  <si>
+    <t>θr</t>
+  </si>
+  <si>
+    <t>θv</t>
+  </si>
+  <si>
+    <t>ω</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>pixelx</t>
+  </si>
+  <si>
+    <t>pixely</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>v_angular</t>
   </si>
 </sst>
 </file>
@@ -381,38 +408,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -420,16 +471,39 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0.23223150000000001</v>
+        <v>0.11604250000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>-0.51539500000000005</v>
-      </c>
-      <c r="G2" s="1">
+        <v>-0.25753510000000002</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.28247159999999999</v>
+      </c>
+      <c r="E2" s="1">
         <v>-65.74418</v>
       </c>
-      <c r="H2" s="1">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1">
+        <v>-65.74418</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>614</v>
+      </c>
+      <c r="N2" s="1">
+        <v>264.25</v>
+      </c>
+      <c r="O2" s="1">
+        <v>233.75</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -437,1559 +511,2285 @@
         <v>3.3366699999999999E-2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.2208938</v>
+        <v>0.1103773</v>
       </c>
       <c r="C3" s="1">
-        <v>-0.47128239999999999</v>
+        <v>-0.2354926</v>
       </c>
       <c r="D3" s="1">
-        <v>-0.4261354</v>
+        <v>0.2600768</v>
       </c>
       <c r="E3" s="1">
-        <v>1.420887</v>
+        <v>-64.887140000000002</v>
       </c>
       <c r="F3" s="1">
-        <v>1.483412</v>
+        <v>-0.21293339999999999</v>
       </c>
       <c r="G3" s="1">
+        <v>0.70999590000000001</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.74123870000000003</v>
+      </c>
+      <c r="I3" s="1">
+        <v>106.6944</v>
+      </c>
+      <c r="J3" s="1">
         <v>-64.887140000000002</v>
       </c>
-      <c r="H3" s="1">
+      <c r="K3" s="1">
+        <v>23.934190000000001</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
         <v>615</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="N3" s="1">
+        <v>258.625</v>
+      </c>
+      <c r="O3" s="1">
+        <v>225.875</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2.2758819999999999E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>6.6733399999999998E-2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.203794</v>
+        <v>0.1018328</v>
       </c>
       <c r="C4" s="1">
-        <v>-0.42057440000000001</v>
+        <v>-0.2101546</v>
       </c>
       <c r="D4" s="1">
-        <v>-0.40065269999999997</v>
+        <v>0.23352700000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>1.504032</v>
+        <v>-64.146969999999996</v>
       </c>
       <c r="F4" s="1">
-        <v>1.5564819999999999</v>
+        <v>-0.20020009999999999</v>
       </c>
       <c r="G4" s="1">
+        <v>0.75154209999999999</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.77775030000000001</v>
+      </c>
+      <c r="I4" s="1">
+        <v>104.9164</v>
+      </c>
+      <c r="J4" s="1">
         <v>-64.146969999999996</v>
       </c>
-      <c r="H4" s="1">
+      <c r="K4" s="1">
+        <v>37.720779999999998</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1">
         <v>616</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="N4" s="1">
+        <v>251.7895</v>
+      </c>
+      <c r="O4" s="1">
+        <v>216.2807</v>
+      </c>
+      <c r="P4" s="1">
+        <v>4.9498739999999999E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.1001001</v>
       </c>
       <c r="B5" s="1">
-        <v>0.19415689999999999</v>
+        <v>9.7017240000000005E-2</v>
       </c>
       <c r="C5" s="1">
-        <v>-0.3709132</v>
+        <v>-0.1853397</v>
       </c>
       <c r="D5" s="1">
-        <v>-0.3540143</v>
+        <v>0.2091964</v>
       </c>
       <c r="E5" s="1">
-        <v>1.4401489999999999</v>
+        <v>-62.369900000000001</v>
       </c>
       <c r="F5" s="1">
-        <v>1.483023</v>
+        <v>-0.17689559999999999</v>
       </c>
       <c r="G5" s="1">
+        <v>0.71962079999999995</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.74104400000000004</v>
+      </c>
+      <c r="I5" s="1">
+        <v>103.8105</v>
+      </c>
+      <c r="J5" s="1">
         <v>-62.369900000000001</v>
       </c>
-      <c r="H5" s="1">
+      <c r="K5" s="1">
+        <v>47.792140000000003</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1">
         <v>617</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="N5" s="1">
+        <v>246.45609999999999</v>
+      </c>
+      <c r="O5" s="1">
+        <v>207.29820000000001</v>
+      </c>
+      <c r="P5" s="1">
+        <v>7.4776609999999993E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.1334668</v>
       </c>
       <c r="B6" s="1">
-        <v>0.18016940000000001</v>
+        <v>9.0027930000000006E-2</v>
       </c>
       <c r="C6" s="1">
-        <v>-0.32446829999999999</v>
+        <v>-0.1621319</v>
       </c>
       <c r="D6" s="1">
-        <v>-0.38269189999999997</v>
+        <v>0.18545020000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>1.401195</v>
+        <v>-60.957639999999998</v>
       </c>
       <c r="F6" s="1">
-        <v>1.4525159999999999</v>
+        <v>-0.19122529999999999</v>
       </c>
       <c r="G6" s="1">
+        <v>0.700156</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.7258</v>
+      </c>
+      <c r="I6" s="1">
+        <v>105.276</v>
+      </c>
+      <c r="J6" s="1">
         <v>-60.957639999999998</v>
       </c>
-      <c r="H6" s="1">
+      <c r="K6" s="1">
+        <v>54.886510000000001</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1">
         <v>618</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="N6" s="1">
+        <v>240.84209999999999</v>
+      </c>
+      <c r="O6" s="1">
+        <v>198.87719999999999</v>
+      </c>
+      <c r="P6" s="1">
+        <v>9.9014030000000003E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.1668335</v>
       </c>
       <c r="B7" s="1">
-        <v>0.1686185</v>
+        <v>8.4256120000000004E-2</v>
       </c>
       <c r="C7" s="1">
-        <v>-0.2774066</v>
+        <v>-0.13861589999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-0.36813170000000001</v>
+        <v>0.1622142</v>
       </c>
       <c r="E7" s="1">
-        <v>1.392919</v>
+        <v>-58.707140000000003</v>
       </c>
       <c r="F7" s="1">
-        <v>1.440744</v>
+        <v>-0.1839498</v>
       </c>
       <c r="G7" s="1">
+        <v>0.69602039999999998</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.71991799999999995</v>
+      </c>
+      <c r="I7" s="1">
+        <v>104.80410000000001</v>
+      </c>
+      <c r="J7" s="1">
         <v>-58.707140000000003</v>
       </c>
-      <c r="H7" s="1">
+      <c r="K7" s="1">
+        <v>72.872829999999993</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1">
         <v>619</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="N7" s="1">
+        <v>235.22810000000001</v>
+      </c>
+      <c r="O7" s="1">
+        <v>190.87719999999999</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.123228</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.20020019999999999</v>
       </c>
       <c r="B8" s="1">
-        <v>0.15560280000000001</v>
+        <v>7.7752340000000003E-2</v>
       </c>
       <c r="C8" s="1">
-        <v>-0.2315141</v>
+        <v>-0.1156841</v>
       </c>
       <c r="D8" s="1">
-        <v>-0.3603093</v>
+        <v>0.13938519999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>1.4407209999999999</v>
+        <v>-56.094589999999997</v>
       </c>
       <c r="F8" s="1">
-        <v>1.485093</v>
+        <v>-0.18004110000000001</v>
       </c>
       <c r="G8" s="1">
+        <v>0.7199065</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.74207829999999997</v>
+      </c>
+      <c r="I8" s="1">
+        <v>104.0411</v>
+      </c>
+      <c r="J8" s="1">
         <v>-56.094589999999997</v>
       </c>
-      <c r="H8" s="1">
+      <c r="K8" s="1">
+        <v>109.1328</v>
+      </c>
+      <c r="L8" s="1">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1">
         <v>620</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="N8" s="1">
+        <v>229.614</v>
+      </c>
+      <c r="O8" s="1">
+        <v>182.59649999999999</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.14706420000000001</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.23356689999999999</v>
       </c>
       <c r="B9" s="1">
-        <v>0.14457390000000001</v>
+        <v>7.2241369999999999E-2</v>
       </c>
       <c r="C9" s="1">
-        <v>-0.18126239999999999</v>
+        <v>-9.0574089999999996E-2</v>
       </c>
       <c r="D9" s="1">
-        <v>-0.3473347</v>
+        <v>0.1158554</v>
       </c>
       <c r="E9" s="1">
-        <v>1.4105639999999999</v>
+        <v>-51.424340000000001</v>
       </c>
       <c r="F9" s="1">
-        <v>1.452698</v>
+        <v>-0.17355789999999999</v>
       </c>
       <c r="G9" s="1">
+        <v>0.70483750000000001</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.72589130000000002</v>
+      </c>
+      <c r="I9" s="1">
+        <v>103.83320000000001</v>
+      </c>
+      <c r="J9" s="1">
         <v>-51.424340000000001</v>
       </c>
-      <c r="H9" s="1">
+      <c r="K9" s="1">
+        <v>150.47550000000001</v>
+      </c>
+      <c r="L9" s="1">
+        <v>7</v>
+      </c>
+      <c r="M9" s="1">
         <v>621</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="N9" s="1">
+        <v>224.4211</v>
+      </c>
+      <c r="O9" s="1">
+        <v>173.614</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.17277190000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.26693359999999999</v>
       </c>
       <c r="B10" s="1">
-        <v>0.13242390000000001</v>
+        <v>6.6170229999999997E-2</v>
       </c>
       <c r="C10" s="1">
-        <v>-0.13738230000000001</v>
+        <v>-6.8647879999999994E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>-0.36147200000000002</v>
+        <v>9.5346890000000004E-2</v>
       </c>
       <c r="E10" s="1">
-        <v>1.377148</v>
+        <v>-46.052849999999999</v>
       </c>
       <c r="F10" s="1">
-        <v>1.4237979999999999</v>
+        <v>-0.18062210000000001</v>
       </c>
       <c r="G10" s="1">
+        <v>0.68814019999999998</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.71145009999999997</v>
+      </c>
+      <c r="I10" s="1">
+        <v>104.7072</v>
+      </c>
+      <c r="J10" s="1">
         <v>-46.052849999999999</v>
       </c>
-      <c r="H10" s="1">
+      <c r="K10" s="1">
+        <v>222.57759999999999</v>
+      </c>
+      <c r="L10" s="1">
+        <v>8</v>
+      </c>
+      <c r="M10" s="1">
         <v>622</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="N10" s="1">
+        <v>218.94739999999999</v>
+      </c>
+      <c r="O10" s="1">
+        <v>165.47370000000001</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.19552310000000001</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.30030030000000002</v>
       </c>
       <c r="B11" s="1">
-        <v>0.12045160000000001</v>
+        <v>6.0187839999999999E-2</v>
       </c>
       <c r="C11" s="1">
-        <v>-8.9360629999999996E-2</v>
+        <v>-4.4652150000000002E-2</v>
       </c>
       <c r="D11" s="1">
-        <v>-0.3313025</v>
+        <v>7.4942579999999995E-2</v>
       </c>
       <c r="E11" s="1">
-        <v>1.4666440000000001</v>
+        <v>-36.570979999999999</v>
       </c>
       <c r="F11" s="1">
-        <v>1.503598</v>
+        <v>-0.16554679999999999</v>
       </c>
       <c r="G11" s="1">
+        <v>0.73285979999999995</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.75132500000000002</v>
+      </c>
+      <c r="I11" s="1">
+        <v>102.729</v>
+      </c>
+      <c r="J11" s="1">
         <v>-36.570979999999999</v>
       </c>
-      <c r="H11" s="1">
+      <c r="K11" s="1">
+        <v>394.8304</v>
+      </c>
+      <c r="L11" s="1">
+        <v>9</v>
+      </c>
+      <c r="M11" s="1">
         <v>623</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="N11" s="1">
+        <v>213.47370000000001</v>
+      </c>
+      <c r="O11" s="1">
+        <v>156.77189999999999</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.22025330000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.33366699999999999</v>
       </c>
       <c r="B12" s="1">
-        <v>0.110315</v>
+        <v>5.512272E-2</v>
       </c>
       <c r="C12" s="1">
-        <v>-3.95082E-2</v>
+        <v>-1.9741649999999999E-2</v>
       </c>
       <c r="D12" s="1">
-        <v>-1.26576E-2</v>
+        <v>5.8551239999999997E-2</v>
       </c>
       <c r="E12" s="1">
-        <v>1.0880430000000001</v>
+        <v>-19.704470000000001</v>
       </c>
       <c r="F12" s="1">
-        <v>1.088117</v>
+        <v>-6.3248100000000002E-3</v>
       </c>
       <c r="G12" s="1">
+        <v>0.54367869999999996</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.54371550000000002</v>
+      </c>
+      <c r="I12" s="1">
+        <v>90.666510000000002</v>
+      </c>
+      <c r="J12" s="1">
         <v>-19.704470000000001</v>
       </c>
-      <c r="H12" s="1">
+      <c r="K12" s="1">
+        <v>428.54329999999999</v>
+      </c>
+      <c r="L12" s="1">
+        <v>10</v>
+      </c>
+      <c r="M12" s="1">
         <v>624</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="N12" s="1">
+        <v>208.1404</v>
+      </c>
+      <c r="O12" s="1">
+        <v>148.3509</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.24567349999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.36703370000000002</v>
       </c>
       <c r="B13" s="1">
-        <v>0.1196069</v>
+        <v>5.9765770000000003E-2</v>
       </c>
       <c r="C13" s="1">
-        <v>-1.6751809999999999E-2</v>
+        <v>-8.3706240000000001E-3</v>
       </c>
       <c r="D13" s="1">
-        <v>0.12847500000000001</v>
+        <v>6.0349100000000003E-2</v>
       </c>
       <c r="E13" s="1">
-        <v>0.71624129999999997</v>
+        <v>-7.972823</v>
       </c>
       <c r="F13" s="1">
-        <v>0.7276726</v>
+        <v>6.4197009999999999E-2</v>
       </c>
       <c r="G13" s="1">
+        <v>0.35789490000000002</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.36360690000000001</v>
+      </c>
+      <c r="I13" s="1">
+        <v>79.830780000000004</v>
+      </c>
+      <c r="J13" s="1">
         <v>-7.972823</v>
       </c>
-      <c r="H13" s="1">
+      <c r="K13" s="1">
+        <v>355.03559999999999</v>
+      </c>
+      <c r="L13" s="1">
+        <v>11</v>
+      </c>
+      <c r="M13" s="1">
         <v>625</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="N13" s="1">
+        <v>207.02760000000001</v>
+      </c>
+      <c r="O13" s="1">
+        <v>144.53039999999999</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.25795600000000002</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.40040039999999999</v>
       </c>
       <c r="B14" s="1">
-        <v>0.1188886</v>
+        <v>5.9406809999999997E-2</v>
       </c>
       <c r="C14" s="1">
-        <v>8.2890159999999997E-3</v>
+        <v>4.1418959999999999E-3</v>
       </c>
       <c r="D14" s="1">
-        <v>-3.6140100000000001E-2</v>
+        <v>5.9551020000000003E-2</v>
       </c>
       <c r="E14" s="1">
-        <v>0.74129590000000001</v>
+        <v>3.9882590000000002</v>
       </c>
       <c r="F14" s="1">
-        <v>0.74217639999999996</v>
+        <v>-1.8058660000000001E-2</v>
       </c>
       <c r="G14" s="1">
+        <v>0.37041429999999997</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.37085430000000003</v>
+      </c>
+      <c r="I14" s="1">
+        <v>92.791110000000003</v>
+      </c>
+      <c r="J14" s="1">
         <v>3.9882590000000002</v>
       </c>
-      <c r="H14" s="1">
+      <c r="K14" s="1">
+        <v>353.21100000000001</v>
+      </c>
+      <c r="L14" s="1">
+        <v>12</v>
+      </c>
+      <c r="M14" s="1">
         <v>626</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="N14" s="1">
+        <v>203.22649999999999</v>
+      </c>
+      <c r="O14" s="1">
+        <v>139.58009999999999</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.27047359999999998</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.43376710000000002</v>
       </c>
       <c r="B15" s="1">
-        <v>0.1171952</v>
+        <v>5.8560649999999999E-2</v>
       </c>
       <c r="C15" s="1">
-        <v>3.2717389999999999E-2</v>
+        <v>1.6348379999999999E-2</v>
       </c>
       <c r="D15" s="1">
-        <v>-0.1736057</v>
+        <v>6.0799829999999999E-2</v>
       </c>
       <c r="E15" s="1">
-        <v>0.71676799999999996</v>
+        <v>15.59815</v>
       </c>
       <c r="F15" s="1">
-        <v>0.73749260000000005</v>
+        <v>-8.6748140000000001E-2</v>
       </c>
       <c r="G15" s="1">
+        <v>0.35815809999999998</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.3685138</v>
+      </c>
+      <c r="I15" s="1">
+        <v>103.6152</v>
+      </c>
+      <c r="J15" s="1">
         <v>15.59815</v>
       </c>
-      <c r="H15" s="1">
+      <c r="K15" s="1">
+        <v>353.97649999999999</v>
+      </c>
+      <c r="L15" s="1">
+        <v>13</v>
+      </c>
+      <c r="M15" s="1">
         <v>627</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="N15" s="1">
+        <v>199.5138</v>
+      </c>
+      <c r="O15" s="1">
+        <v>135.0718</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.2827094</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.46713379999999999</v>
       </c>
       <c r="B16" s="1">
-        <v>0.1073033</v>
+        <v>5.3617810000000002E-2</v>
       </c>
       <c r="C16" s="1">
-        <v>5.6121379999999998E-2</v>
+        <v>2.8042999999999998E-2</v>
       </c>
       <c r="D16" s="1">
-        <v>-0.39626820000000001</v>
+        <v>6.0508510000000001E-2</v>
       </c>
       <c r="E16" s="1">
-        <v>0.67260629999999999</v>
+        <v>27.610309999999998</v>
       </c>
       <c r="F16" s="1">
-        <v>0.78065850000000003</v>
+        <v>-0.1980092</v>
       </c>
       <c r="G16" s="1">
+        <v>0.33609119999999998</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.39008320000000002</v>
+      </c>
+      <c r="I16" s="1">
+        <v>120.5046</v>
+      </c>
+      <c r="J16" s="1">
         <v>27.610309999999998</v>
       </c>
-      <c r="H16" s="1">
+      <c r="K16" s="1">
+        <v>373.66910000000001</v>
+      </c>
+      <c r="L16" s="1">
+        <v>14</v>
+      </c>
+      <c r="M16" s="1">
         <v>628</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="N16" s="1">
+        <v>194.1215</v>
+      </c>
+      <c r="O16" s="1">
+        <v>130.8287</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.29540569999999999</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.50050050000000001</v>
       </c>
       <c r="B17" s="1">
-        <v>9.0750849999999994E-2</v>
+        <v>4.5346820000000003E-2</v>
       </c>
       <c r="C17" s="1">
-        <v>7.7602699999999997E-2</v>
+        <v>3.8776890000000001E-2</v>
       </c>
       <c r="D17" s="1">
-        <v>-0.48771439999999999</v>
+        <v>5.9665580000000003E-2</v>
       </c>
       <c r="E17" s="1">
-        <v>0.60364320000000005</v>
+        <v>40.534350000000003</v>
       </c>
       <c r="F17" s="1">
-        <v>0.77604799999999996</v>
+        <v>-0.24370349999999999</v>
       </c>
       <c r="G17" s="1">
+        <v>0.30163139999999999</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.3877794</v>
+      </c>
+      <c r="I17" s="1">
+        <v>128.9365</v>
+      </c>
+      <c r="J17" s="1">
         <v>40.534350000000003</v>
       </c>
-      <c r="H17" s="1">
+      <c r="K17" s="1">
+        <v>368.60219999999998</v>
+      </c>
+      <c r="L17" s="1">
+        <v>15</v>
+      </c>
+      <c r="M17" s="1">
         <v>629</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+      <c r="N17" s="1">
+        <v>188.02209999999999</v>
+      </c>
+      <c r="O17" s="1">
+        <v>126.7624</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.30895660000000003</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.53386719999999999</v>
       </c>
       <c r="B18" s="1">
-        <v>7.4756420000000004E-2</v>
+        <v>3.7354650000000003E-2</v>
       </c>
       <c r="C18" s="1">
-        <v>9.6404539999999997E-2</v>
+        <v>4.8171890000000002E-2</v>
       </c>
       <c r="D18" s="1">
-        <v>-0.59505680000000005</v>
+        <v>6.0958190000000002E-2</v>
       </c>
       <c r="E18" s="1">
-        <v>0.50920540000000003</v>
+        <v>52.208390000000001</v>
       </c>
       <c r="F18" s="1">
-        <v>0.78318759999999998</v>
+        <v>-0.29734090000000002</v>
       </c>
       <c r="G18" s="1">
+        <v>0.25444220000000001</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.391347</v>
+      </c>
+      <c r="I18" s="1">
+        <v>139.44550000000001</v>
+      </c>
+      <c r="J18" s="1">
         <v>52.208390000000001</v>
       </c>
-      <c r="H18" s="1">
+      <c r="K18" s="1">
+        <v>372.90649999999999</v>
+      </c>
+      <c r="L18" s="1">
+        <v>16</v>
+      </c>
+      <c r="M18" s="1">
         <v>630</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+      <c r="N18" s="1">
+        <v>182.18780000000001</v>
+      </c>
+      <c r="O18" s="1">
+        <v>123.49169999999999</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.3212911</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.56723389999999996</v>
       </c>
       <c r="B19" s="1">
-        <v>5.1040679999999998E-2</v>
+        <v>2.5504260000000001E-2</v>
       </c>
       <c r="C19" s="1">
-        <v>0.11158369999999999</v>
+        <v>5.5756689999999998E-2</v>
       </c>
       <c r="D19" s="1">
-        <v>-0.69054660000000001</v>
+        <v>6.1312930000000002E-2</v>
       </c>
       <c r="E19" s="1">
-        <v>0.33204919999999999</v>
+        <v>65.419669999999996</v>
       </c>
       <c r="F19" s="1">
-        <v>0.76623180000000002</v>
+        <v>-0.34505570000000002</v>
       </c>
       <c r="G19" s="1">
+        <v>0.16591990000000001</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.3828744</v>
+      </c>
+      <c r="I19" s="1">
+        <v>154.3194</v>
+      </c>
+      <c r="J19" s="1">
         <v>65.419669999999996</v>
       </c>
-      <c r="H19" s="1">
+      <c r="K19" s="1">
+        <v>362.57679999999999</v>
+      </c>
+      <c r="L19" s="1">
+        <v>17</v>
+      </c>
+      <c r="M19" s="1">
         <v>631</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
+      <c r="N19" s="1">
+        <v>174.67400000000001</v>
+      </c>
+      <c r="O19" s="1">
+        <v>120.4862</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.33536100000000002</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.60060060000000004</v>
       </c>
       <c r="B20" s="1">
-        <v>2.8673899999999999E-2</v>
+        <v>1.4327909999999999E-2</v>
       </c>
       <c r="C20" s="1">
-        <v>0.1185633</v>
+        <v>5.9244289999999998E-2</v>
       </c>
       <c r="D20" s="1">
-        <v>-0.73747180000000001</v>
+        <v>6.0952239999999998E-2</v>
       </c>
       <c r="E20" s="1">
-        <v>0.13647580000000001</v>
+        <v>76.404380000000003</v>
       </c>
       <c r="F20" s="1">
-        <v>0.74999349999999998</v>
+        <v>-0.36850349999999998</v>
       </c>
       <c r="G20" s="1">
+        <v>6.8194879999999999E-2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.37476039999999999</v>
+      </c>
+      <c r="I20" s="1">
+        <v>169.5155</v>
+      </c>
+      <c r="J20" s="1">
         <v>76.404380000000003</v>
       </c>
-      <c r="H20" s="1">
+      <c r="K20" s="1">
+        <v>355.3426</v>
+      </c>
+      <c r="L20" s="1">
+        <v>18</v>
+      </c>
+      <c r="M20" s="1">
         <v>632</v>
       </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+      <c r="N20" s="1">
+        <v>167.4254</v>
+      </c>
+      <c r="O20" s="1">
+        <v>119.6906</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.34706880000000001</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.63396730000000001</v>
       </c>
       <c r="B21" s="1">
-        <v>1.8266809999999999E-3</v>
+        <v>9.1276479999999999E-4</v>
       </c>
       <c r="C21" s="1">
-        <v>0.1206912</v>
+        <v>6.0307560000000003E-2</v>
       </c>
       <c r="D21" s="1">
-        <v>-0.80489560000000004</v>
+        <v>6.0314470000000002E-2</v>
       </c>
       <c r="E21" s="1">
-        <v>-1.282346E-2</v>
+        <v>89.132890000000003</v>
       </c>
       <c r="F21" s="1">
-        <v>0.80499779999999999</v>
+        <v>-0.4021941</v>
       </c>
       <c r="G21" s="1">
+        <v>-6.4076879999999999E-3</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.40224520000000002</v>
+      </c>
+      <c r="I21" s="1">
+        <v>-179.0873</v>
+      </c>
+      <c r="J21" s="1">
         <v>89.132890000000003</v>
       </c>
-      <c r="H21" s="1">
+      <c r="K21" s="1">
+        <v>383.69009999999997</v>
+      </c>
+      <c r="L21" s="1">
+        <v>19</v>
+      </c>
+      <c r="M21" s="1">
         <v>633</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="N21" s="1">
+        <v>159.20439999999999</v>
+      </c>
+      <c r="O21" s="1">
+        <v>119.4254</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.36052600000000001</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.66733399999999998</v>
       </c>
       <c r="B22" s="1">
-        <v>-2.5039530000000001E-2</v>
+        <v>-1.251187E-2</v>
       </c>
       <c r="C22" s="1">
-        <v>0.1177076</v>
+        <v>5.8816680000000003E-2</v>
       </c>
       <c r="D22" s="1">
-        <v>-0.7591502</v>
+        <v>6.013276E-2</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.13579369999999999</v>
+        <v>102.0093</v>
       </c>
       <c r="F22" s="1">
-        <v>0.77119970000000004</v>
+        <v>-0.3793358</v>
       </c>
       <c r="G22" s="1">
+        <v>-6.7854049999999999E-2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.3853568</v>
+      </c>
+      <c r="I22" s="1">
+        <v>-169.85839999999999</v>
+      </c>
+      <c r="J22" s="1">
         <v>102.0093</v>
       </c>
-      <c r="H22" s="1">
+      <c r="K22" s="1">
+        <v>367.05549999999999</v>
+      </c>
+      <c r="L22" s="1">
+        <v>20</v>
+      </c>
+      <c r="M22" s="1">
         <v>634</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="N22" s="1">
+        <v>151.1602</v>
+      </c>
+      <c r="O22" s="1">
+        <v>120.1326</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.37403320000000001</v>
+      </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.70070069999999995</v>
       </c>
       <c r="B23" s="1">
-        <v>-4.8833990000000001E-2</v>
+        <v>-2.4401610000000001E-2</v>
       </c>
       <c r="C23" s="1">
-        <v>0.1116292</v>
+        <v>5.5779429999999998E-2</v>
       </c>
       <c r="D23" s="1">
-        <v>-0.68915539999999997</v>
+        <v>6.0883359999999997E-2</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.27708830000000001</v>
+        <v>113.6277</v>
       </c>
       <c r="F23" s="1">
-        <v>0.74277389999999999</v>
+        <v>-0.34436050000000001</v>
       </c>
       <c r="G23" s="1">
+        <v>-0.13845679999999999</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.3711528</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-158.09639999999999</v>
+      </c>
+      <c r="J23" s="1">
         <v>113.6277</v>
       </c>
-      <c r="H23" s="1">
+      <c r="K23" s="1">
+        <v>353.49009999999998</v>
+      </c>
+      <c r="L23" s="1">
+        <v>21</v>
+      </c>
+      <c r="M23" s="1">
         <v>635</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+      <c r="N23" s="1">
+        <v>143.6464</v>
+      </c>
+      <c r="O23" s="1">
+        <v>121.0166</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.3863048</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.73406740000000004</v>
       </c>
       <c r="B24" s="1">
-        <v>-7.1029209999999995E-2</v>
+        <v>-3.5492219999999998E-2</v>
       </c>
       <c r="C24" s="1">
-        <v>9.9216520000000002E-2</v>
+        <v>4.9576990000000001E-2</v>
       </c>
       <c r="D24" s="1">
-        <v>-0.61323369999999999</v>
+        <v>6.0971919999999999E-2</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.45974209999999999</v>
+        <v>125.5989</v>
       </c>
       <c r="F24" s="1">
-        <v>0.76643229999999996</v>
+        <v>-0.30642360000000002</v>
       </c>
       <c r="G24" s="1">
+        <v>-0.22972619999999999</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.3829746</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-143.14109999999999</v>
+      </c>
+      <c r="J24" s="1">
         <v>125.5989</v>
       </c>
-      <c r="H24" s="1">
+      <c r="K24" s="1">
+        <v>364.5249</v>
+      </c>
+      <c r="L24" s="1">
+        <v>22</v>
+      </c>
+      <c r="M24" s="1">
         <v>636</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
+      <c r="N24" s="1">
+        <v>136.4862</v>
+      </c>
+      <c r="O24" s="1">
+        <v>123.66849999999999</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0.39901189999999997</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.76743410000000001</v>
       </c>
       <c r="B25" s="1">
-        <v>-8.9757160000000002E-2</v>
+        <v>-4.4850290000000001E-2</v>
       </c>
       <c r="C25" s="1">
-        <v>8.0949069999999998E-2</v>
+        <v>4.0449020000000002E-2</v>
       </c>
       <c r="D25" s="1">
-        <v>-0.60836699999999999</v>
+        <v>6.0395959999999999E-2</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.78925710000000004</v>
+        <v>137.9537</v>
       </c>
       <c r="F25" s="1">
-        <v>0.99651250000000002</v>
+        <v>-0.30399179999999998</v>
       </c>
       <c r="G25" s="1">
+        <v>-0.3943798</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.4979422</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-127.6254</v>
+      </c>
+      <c r="J25" s="1">
         <v>137.9537</v>
       </c>
-      <c r="H25" s="1">
+      <c r="K25" s="1">
+        <v>476.01089999999999</v>
+      </c>
+      <c r="L25" s="1">
+        <v>23</v>
+      </c>
+      <c r="M25" s="1">
         <v>637</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
+      <c r="N25" s="1">
+        <v>129.768</v>
+      </c>
+      <c r="O25" s="1">
+        <v>127.20440000000001</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.41208450000000002</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.80080079999999998</v>
       </c>
       <c r="B26" s="1">
-        <v>-0.11162759999999999</v>
+        <v>-5.5778620000000001E-2</v>
       </c>
       <c r="C26" s="1">
-        <v>4.6546700000000003E-2</v>
+        <v>2.325868E-2</v>
       </c>
       <c r="D26" s="1">
-        <v>-0.44687100000000002</v>
+        <v>6.0433609999999999E-2</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.84578339999999996</v>
+        <v>157.3647</v>
       </c>
       <c r="F26" s="1">
-        <v>0.95657890000000001</v>
+        <v>-0.22329470000000001</v>
       </c>
       <c r="G26" s="1">
+        <v>-0.42262509999999998</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.47798800000000002</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-117.8498</v>
+      </c>
+      <c r="J26" s="1">
         <v>157.3647</v>
       </c>
-      <c r="H26" s="1">
+      <c r="K26" s="1">
+        <v>456.50510000000003</v>
+      </c>
+      <c r="L26" s="1">
+        <v>24</v>
+      </c>
+      <c r="M26" s="1">
         <v>638</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
+      <c r="N26" s="1">
+        <v>121.105</v>
+      </c>
+      <c r="O26" s="1">
+        <v>132.5967</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.43245450000000002</v>
+      </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.83416749999999995</v>
       </c>
       <c r="B27" s="1">
-        <v>-0.1195784</v>
+        <v>-5.9751510000000001E-2</v>
       </c>
       <c r="C27" s="1">
-        <v>2.4507069999999999E-2</v>
+        <v>1.2245809999999999E-2</v>
       </c>
       <c r="D27" s="1">
-        <v>-0.1642961</v>
+        <v>6.0993459999999999E-2</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.70821829999999997</v>
+        <v>168.4179</v>
       </c>
       <c r="F27" s="1">
-        <v>0.72702580000000006</v>
+        <v>-8.2096290000000002E-2</v>
       </c>
       <c r="G27" s="1">
+        <v>-0.35388599999999998</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.36328369999999999</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-103.0607</v>
+      </c>
+      <c r="J27" s="1">
         <v>168.4179</v>
       </c>
-      <c r="H27" s="1">
+      <c r="K27" s="1">
+        <v>344.19760000000002</v>
+      </c>
+      <c r="L27" s="1">
+        <v>25</v>
+      </c>
+      <c r="M27" s="1">
         <v>639</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+      <c r="N27" s="1">
+        <v>116.4199</v>
+      </c>
+      <c r="O27" s="1">
+        <v>136.8398</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.4441621</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.86753420000000003</v>
       </c>
       <c r="B28" s="1">
-        <v>-0.1225916</v>
+        <v>-6.1257190000000003E-2</v>
       </c>
       <c r="C28" s="1">
-        <v>-7.1511350000000003E-4</v>
+        <v>-3.5733139999999999E-4</v>
       </c>
       <c r="D28" s="1">
-        <v>-1.4937279999999999E-3</v>
+        <v>6.1258229999999997E-2</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.74042859999999999</v>
+        <v>-179.66579999999999</v>
       </c>
       <c r="F28" s="1">
-        <v>0.74043009999999998</v>
+        <v>-7.4639330000000003E-4</v>
       </c>
       <c r="G28" s="1">
+        <v>-0.369981</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.36998170000000002</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-90.115589999999997</v>
+      </c>
+      <c r="J28" s="1">
         <v>180.33420000000001</v>
       </c>
-      <c r="H28" s="1">
+      <c r="K28" s="1">
+        <v>349.70890000000003</v>
+      </c>
+      <c r="L28" s="1">
+        <v>26</v>
+      </c>
+      <c r="M28" s="1">
         <v>640</v>
       </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
+      <c r="N28" s="1">
+        <v>112.7072</v>
+      </c>
+      <c r="O28" s="1">
+        <v>141.8785</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.45685480000000001</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.9009009</v>
       </c>
       <c r="B29" s="1">
-        <v>-0.1196781</v>
+        <v>-5.9801319999999998E-2</v>
       </c>
       <c r="C29" s="1">
-        <v>-2.4904249999999999E-2</v>
+        <v>-1.244428E-2</v>
       </c>
       <c r="D29" s="1">
-        <v>0.1443952</v>
+        <v>6.1082379999999999E-2</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.74340079999999997</v>
+        <v>-168.2449</v>
       </c>
       <c r="F29" s="1">
-        <v>0.75729429999999998</v>
+        <v>7.2152079999999993E-2</v>
       </c>
       <c r="G29" s="1">
+        <v>-0.37146610000000002</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.37840849999999998</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-79.00797</v>
+      </c>
+      <c r="J29" s="1">
         <v>191.7551</v>
       </c>
-      <c r="H29" s="1">
+      <c r="K29" s="1">
+        <v>354.84530000000001</v>
+      </c>
+      <c r="L29" s="1">
+        <v>27</v>
+      </c>
+      <c r="M29" s="1">
         <v>641</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+      <c r="N29" s="1">
+        <v>109.9669</v>
+      </c>
+      <c r="O29" s="1">
+        <v>147.35910000000001</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.46902919999999998</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.93426759999999998</v>
       </c>
       <c r="B30" s="1">
-        <v>-0.11295570000000001</v>
+        <v>-5.6442230000000003E-2</v>
       </c>
       <c r="C30" s="1">
-        <v>-5.032478E-2</v>
+        <v>-2.514653E-2</v>
       </c>
       <c r="D30" s="1">
-        <v>0.3085967</v>
+        <v>6.1790560000000001E-2</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.72577530000000001</v>
+        <v>-155.98570000000001</v>
       </c>
       <c r="F30" s="1">
-        <v>0.78865810000000003</v>
+        <v>0.15420110000000001</v>
       </c>
       <c r="G30" s="1">
+        <v>-0.36265890000000001</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.3940805</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-66.965000000000003</v>
+      </c>
+      <c r="J30" s="1">
         <v>204.01429999999999</v>
       </c>
-      <c r="H30" s="1">
+      <c r="K30" s="1">
+        <v>370.90899999999999</v>
+      </c>
+      <c r="L30" s="1">
+        <v>28</v>
+      </c>
+      <c r="M30" s="1">
         <v>642</v>
       </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
+      <c r="N30" s="1">
+        <v>108.02209999999999</v>
+      </c>
+      <c r="O30" s="1">
+        <v>152.39779999999999</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0.48216809999999999</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.96763429999999995</v>
       </c>
       <c r="B31" s="1">
-        <v>-9.9084359999999996E-2</v>
+        <v>-4.9510949999999998E-2</v>
       </c>
       <c r="C31" s="1">
-        <v>-7.3337700000000006E-2</v>
+        <v>-3.6645740000000003E-2</v>
       </c>
       <c r="D31" s="1">
-        <v>0.44921870000000003</v>
+        <v>6.1597440000000003E-2</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.61681299999999994</v>
+        <v>-143.49289999999999</v>
       </c>
       <c r="F31" s="1">
-        <v>0.76305690000000004</v>
+        <v>0.2244678</v>
       </c>
       <c r="G31" s="1">
+        <v>-0.30821209999999999</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.38128800000000002</v>
+      </c>
+      <c r="I31" s="1">
+        <v>-53.934519999999999</v>
+      </c>
+      <c r="J31" s="1">
         <v>216.50710000000001</v>
       </c>
-      <c r="H31" s="1">
+      <c r="K31" s="1">
+        <v>356.31299999999999</v>
+      </c>
+      <c r="L31" s="1">
+        <v>29</v>
+      </c>
+      <c r="M31" s="1">
         <v>643</v>
       </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
+      <c r="N31" s="1">
+        <v>107.49169999999999</v>
+      </c>
+      <c r="O31" s="1">
+        <v>156.90610000000001</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0.4955947</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1.001001</v>
       </c>
       <c r="B32" s="1">
-        <v>-8.2977770000000006E-2</v>
+        <v>-4.1462730000000003E-2</v>
       </c>
       <c r="C32" s="1">
-        <v>-9.1486810000000002E-2</v>
+        <v>-4.5714570000000003E-2</v>
       </c>
       <c r="D32" s="1">
-        <v>0.55534490000000003</v>
+        <v>6.1716939999999998E-2</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.48246549999999999</v>
+        <v>-132.20779999999999</v>
       </c>
       <c r="F32" s="1">
-        <v>0.73565000000000003</v>
+        <v>0.27749740000000001</v>
       </c>
       <c r="G32" s="1">
+        <v>-0.24108070000000001</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.36759320000000001</v>
+      </c>
+      <c r="I32" s="1">
+        <v>-40.983040000000003</v>
+      </c>
+      <c r="J32" s="1">
         <v>227.79220000000001</v>
       </c>
-      <c r="H32" s="1">
+      <c r="K32" s="1">
+        <v>345.3947</v>
+      </c>
+      <c r="L32" s="1">
+        <v>30</v>
+      </c>
+      <c r="M32" s="1">
         <v>644</v>
       </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
+      <c r="N32" s="1">
+        <v>107.4033</v>
+      </c>
+      <c r="O32" s="1">
+        <v>160.08840000000001</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.50771980000000005</v>
+      </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1.034368</v>
       </c>
       <c r="B33" s="1">
-        <v>-6.2024309999999999E-2</v>
+        <v>-3.099261E-2</v>
       </c>
       <c r="C33" s="1">
-        <v>-0.1055343</v>
+        <v>-5.2733870000000002E-2</v>
       </c>
       <c r="D33" s="1">
-        <v>0.68464440000000004</v>
+        <v>6.1167010000000001E-2</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.36880180000000001</v>
+        <v>-120.4435</v>
       </c>
       <c r="F33" s="1">
-        <v>0.77765850000000003</v>
+        <v>0.34210649999999998</v>
       </c>
       <c r="G33" s="1">
+        <v>-0.1842847</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.38858419999999999</v>
+      </c>
+      <c r="I33" s="1">
+        <v>-28.310300000000002</v>
+      </c>
+      <c r="J33" s="1">
         <v>239.5565</v>
       </c>
-      <c r="H33" s="1">
+      <c r="K33" s="1">
+        <v>365.65609999999998</v>
+      </c>
+      <c r="L33" s="1">
+        <v>31</v>
+      </c>
+      <c r="M33" s="1">
         <v>645</v>
       </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
+      <c r="N33" s="1">
+        <v>108.19889999999999</v>
+      </c>
+      <c r="O33" s="1">
+        <v>162.8287</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0.52032509999999998</v>
+      </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1.067734</v>
       </c>
       <c r="B34" s="1">
-        <v>-3.7289120000000002E-2</v>
+        <v>-1.863281E-2</v>
       </c>
       <c r="C34" s="1">
-        <v>-0.1160982</v>
+        <v>-5.8012510000000003E-2</v>
       </c>
       <c r="D34" s="1">
-        <v>0.76982010000000001</v>
+        <v>6.093138E-2</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.2158368</v>
+        <v>-107.80629999999999</v>
       </c>
       <c r="F34" s="1">
-        <v>0.79950520000000003</v>
+        <v>0.38466739999999999</v>
       </c>
       <c r="G34" s="1">
+        <v>-0.1078504</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.39950059999999998</v>
+      </c>
+      <c r="I34" s="1">
+        <v>-15.66206</v>
+      </c>
+      <c r="J34" s="1">
         <v>252.19370000000001</v>
       </c>
-      <c r="H34" s="1">
+      <c r="K34" s="1">
+        <v>380.14550000000003</v>
+      </c>
+      <c r="L34" s="1">
+        <v>32</v>
+      </c>
+      <c r="M34" s="1">
         <v>646</v>
       </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
+      <c r="N34" s="1">
+        <v>109.6133</v>
+      </c>
+      <c r="O34" s="1">
+        <v>165.21549999999999</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.53376489999999999</v>
+      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1.1011010000000001</v>
       </c>
       <c r="B35" s="1">
-        <v>-1.0651590000000001E-2</v>
+        <v>-5.3224379999999996E-3</v>
       </c>
       <c r="C35" s="1">
-        <v>-0.1199378</v>
+        <v>-5.9931100000000001E-2</v>
       </c>
       <c r="D35" s="1">
-        <v>0.77443870000000004</v>
+        <v>6.016697E-2</v>
       </c>
       <c r="E35" s="1">
-        <v>-6.6429630000000003E-2</v>
+        <v>-95.07508</v>
       </c>
       <c r="F35" s="1">
-        <v>0.77728260000000005</v>
+        <v>0.38697530000000002</v>
       </c>
       <c r="G35" s="1">
+        <v>-3.3193880000000002E-2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.38839630000000003</v>
+      </c>
+      <c r="I35" s="1">
+        <v>-4.902704</v>
+      </c>
+      <c r="J35" s="1">
         <v>264.92489999999998</v>
       </c>
-      <c r="H35" s="1">
+      <c r="K35" s="1">
+        <v>368.86099999999999</v>
+      </c>
+      <c r="L35" s="1">
+        <v>33</v>
+      </c>
+      <c r="M35" s="1">
         <v>647</v>
       </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
+      <c r="N35" s="1">
+        <v>111.2928</v>
+      </c>
+      <c r="O35" s="1">
+        <v>165.6575</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0.54721280000000005</v>
+      </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1.134468</v>
       </c>
       <c r="B36" s="1">
-        <v>1.439181E-2</v>
+        <v>7.1913680000000001E-3</v>
       </c>
       <c r="C36" s="1">
-        <v>-0.12053129999999999</v>
+        <v>-6.0227650000000001E-2</v>
       </c>
       <c r="D36" s="1">
-        <v>0.75703750000000003</v>
+        <v>6.0655470000000003E-2</v>
       </c>
       <c r="E36" s="1">
-        <v>0.1026442</v>
+        <v>-83.190939999999998</v>
       </c>
       <c r="F36" s="1">
-        <v>0.76396439999999999</v>
+        <v>0.37828010000000001</v>
       </c>
       <c r="G36" s="1">
+        <v>5.1289729999999999E-2</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.38174140000000001</v>
+      </c>
+      <c r="I36" s="1">
+        <v>7.7214549999999997</v>
+      </c>
+      <c r="J36" s="1">
         <v>276.8091</v>
       </c>
-      <c r="H36" s="1">
+      <c r="K36" s="1">
+        <v>367.05309999999997</v>
+      </c>
+      <c r="L36" s="1">
+        <v>34</v>
+      </c>
+      <c r="M36" s="1">
         <v>648</v>
       </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
+      <c r="N36" s="1">
+        <v>112.97239999999999</v>
+      </c>
+      <c r="O36" s="1">
+        <v>165.92269999999999</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0.55973019999999996</v>
+      </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1.167835</v>
       </c>
       <c r="B37" s="1">
-        <v>3.9868090000000002E-2</v>
+        <v>1.9921479999999998E-2</v>
       </c>
       <c r="C37" s="1">
-        <v>-0.11308799999999999</v>
+        <v>-5.6508360000000001E-2</v>
       </c>
       <c r="D37" s="1">
-        <v>0.72816360000000002</v>
+        <v>5.9917110000000003E-2</v>
       </c>
       <c r="E37" s="1">
-        <v>0.24123349999999999</v>
+        <v>-70.580380000000005</v>
       </c>
       <c r="F37" s="1">
-        <v>0.76708270000000001</v>
+        <v>0.36385230000000002</v>
       </c>
       <c r="G37" s="1">
+        <v>0.1205407</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.38329960000000002</v>
+      </c>
+      <c r="I37" s="1">
+        <v>18.329529999999998</v>
+      </c>
+      <c r="J37" s="1">
         <v>289.4196</v>
       </c>
-      <c r="H37" s="1">
+      <c r="K37" s="1">
+        <v>363.9194</v>
+      </c>
+      <c r="L37" s="1">
+        <v>35</v>
+      </c>
+      <c r="M37" s="1">
         <v>649</v>
       </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
+      <c r="N37" s="1">
+        <v>114.2983</v>
+      </c>
+      <c r="O37" s="1">
+        <v>164.68510000000001</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0.57299250000000002</v>
+      </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1.201201</v>
       </c>
       <c r="B38" s="1">
-        <v>6.2984639999999995E-2</v>
+        <v>3.1472470000000002E-2</v>
       </c>
       <c r="C38" s="1">
-        <v>-0.1044329</v>
+        <v>-5.2183559999999997E-2</v>
       </c>
       <c r="D38" s="1">
-        <v>0.64157969999999998</v>
+        <v>6.0939640000000003E-2</v>
       </c>
       <c r="E38" s="1">
-        <v>0.35429670000000002</v>
+        <v>-58.905369999999998</v>
       </c>
       <c r="F38" s="1">
-        <v>0.73290569999999999</v>
+        <v>0.32058759999999997</v>
       </c>
       <c r="G38" s="1">
+        <v>0.17703669999999999</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.36622179999999999</v>
+      </c>
+      <c r="I38" s="1">
+        <v>28.9086</v>
+      </c>
+      <c r="J38" s="1">
         <v>301.09460000000001</v>
       </c>
-      <c r="H38" s="1">
+      <c r="K38" s="1">
+        <v>349.61189999999999</v>
+      </c>
+      <c r="L38" s="1">
+        <v>36</v>
+      </c>
+      <c r="M38" s="1">
         <v>650</v>
       </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
+      <c r="N38" s="1">
+        <v>115.1823</v>
+      </c>
+      <c r="O38" s="1">
+        <v>163.09389999999999</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0.58532649999999997</v>
+      </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1.2345680000000001</v>
       </c>
       <c r="B39" s="1">
-        <v>8.2682889999999995E-2</v>
+        <v>4.131539E-2</v>
       </c>
       <c r="C39" s="1">
-        <v>-8.9444570000000001E-2</v>
+        <v>-4.46941E-2</v>
       </c>
       <c r="D39" s="1">
-        <v>0.55067330000000003</v>
+        <v>6.0864799999999997E-2</v>
       </c>
       <c r="E39" s="1">
-        <v>0.5107254</v>
+        <v>-47.249589999999998</v>
       </c>
       <c r="F39" s="1">
-        <v>0.75105359999999999</v>
+        <v>0.27516309999999999</v>
       </c>
       <c r="G39" s="1">
+        <v>0.25520169999999998</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.37529010000000002</v>
+      </c>
+      <c r="I39" s="1">
+        <v>42.844569999999997</v>
+      </c>
+      <c r="J39" s="1">
         <v>312.75040000000001</v>
       </c>
-      <c r="H39" s="1">
+      <c r="K39" s="1">
+        <v>355.2441</v>
+      </c>
+      <c r="L39" s="1">
+        <v>37</v>
+      </c>
+      <c r="M39" s="1">
         <v>651</v>
       </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
+      <c r="N39" s="1">
+        <v>116.0663</v>
+      </c>
+      <c r="O39" s="1">
+        <v>160.7072</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0.59769479999999997</v>
+      </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1.267935</v>
       </c>
       <c r="B40" s="1">
-        <v>9.9732940000000006E-2</v>
+        <v>4.9835039999999997E-2</v>
       </c>
       <c r="C40" s="1">
-        <v>-7.0350510000000005E-2</v>
+        <v>-3.5153080000000003E-2</v>
       </c>
       <c r="D40" s="1">
-        <v>0.45407039999999999</v>
+        <v>6.0985820000000003E-2</v>
       </c>
       <c r="E40" s="1">
-        <v>0.62164109999999995</v>
+        <v>-35.198720000000002</v>
       </c>
       <c r="F40" s="1">
-        <v>0.76981659999999996</v>
+        <v>0.22689210000000001</v>
       </c>
       <c r="G40" s="1">
+        <v>0.31062459999999997</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.3846657</v>
+      </c>
+      <c r="I40" s="1">
+        <v>53.854179999999999</v>
+      </c>
+      <c r="J40" s="1">
         <v>324.80130000000003</v>
       </c>
-      <c r="H40" s="1">
+      <c r="K40" s="1">
+        <v>363.37209999999999</v>
+      </c>
+      <c r="L40" s="1">
+        <v>38</v>
+      </c>
+      <c r="M40" s="1">
         <v>652</v>
       </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
+      <c r="N40" s="1">
+        <v>116.0663</v>
+      </c>
+      <c r="O40" s="1">
+        <v>157.0829</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0.61048610000000003</v>
+      </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1.301301</v>
       </c>
       <c r="B41" s="1">
-        <v>0.1129846</v>
+        <v>5.645667E-2</v>
       </c>
       <c r="C41" s="1">
-        <v>-4.7960339999999997E-2</v>
+        <v>-2.396506E-2</v>
       </c>
       <c r="D41" s="1">
-        <v>0.31635780000000002</v>
+        <v>6.1332530000000003E-2</v>
       </c>
       <c r="E41" s="1">
-        <v>0.71665730000000005</v>
+        <v>-23.000540000000001</v>
       </c>
       <c r="F41" s="1">
-        <v>0.78337730000000005</v>
+        <v>0.1580792</v>
       </c>
       <c r="G41" s="1">
+        <v>0.3581028</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.39144180000000001</v>
+      </c>
+      <c r="I41" s="1">
+        <v>66.181650000000005</v>
+      </c>
+      <c r="J41" s="1">
         <v>336.99950000000001</v>
       </c>
-      <c r="H41" s="1">
+      <c r="K41" s="1">
+        <v>369.22910000000002</v>
+      </c>
+      <c r="L41" s="1">
+        <v>39</v>
+      </c>
+      <c r="M41" s="1">
         <v>653</v>
       </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
+      <c r="N41" s="1">
+        <v>115.1823</v>
+      </c>
+      <c r="O41" s="1">
+        <v>153.01660000000001</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0.62348680000000001</v>
+      </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1.334668</v>
       </c>
       <c r="B42" s="1">
-        <v>0.1208446</v>
+        <v>6.0384199999999999E-2</v>
       </c>
       <c r="C42" s="1">
-        <v>-2.252552E-2</v>
+        <v>-1.1255660000000001E-2</v>
       </c>
       <c r="D42" s="1">
-        <v>0.13584589999999999</v>
+        <v>6.1424279999999998E-2</v>
       </c>
       <c r="E42" s="1">
-        <v>0.73451750000000005</v>
+        <v>-10.5588</v>
       </c>
       <c r="F42" s="1">
-        <v>0.74697389999999997</v>
+        <v>6.788015E-2</v>
       </c>
       <c r="G42" s="1">
+        <v>0.3670273</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.37325150000000001</v>
+      </c>
+      <c r="I42" s="1">
+        <v>79.521780000000007</v>
+      </c>
+      <c r="J42" s="1">
         <v>349.44119999999998</v>
       </c>
-      <c r="H42" s="1">
+      <c r="K42" s="1">
+        <v>352.09500000000003</v>
+      </c>
+      <c r="L42" s="1">
+        <v>40</v>
+      </c>
+      <c r="M42" s="1">
         <v>654</v>
       </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
+      <c r="N42" s="1">
+        <v>113.50279999999999</v>
+      </c>
+      <c r="O42" s="1">
+        <v>148.68510000000001</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0.63678920000000006</v>
+      </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1.3680349999999999</v>
       </c>
       <c r="B43" s="1">
-        <v>0.12205000000000001</v>
+        <v>6.0986539999999999E-2</v>
       </c>
       <c r="C43" s="1">
-        <v>1.0565049999999999E-3</v>
+        <v>5.2791939999999999E-4</v>
       </c>
       <c r="D43" s="1">
-        <v>-1.198103E-2</v>
+        <v>6.0988819999999999E-2</v>
       </c>
       <c r="E43" s="1">
-        <v>0.71443509999999999</v>
+        <v>0.49595860000000003</v>
       </c>
       <c r="F43" s="1">
-        <v>0.71453560000000005</v>
+        <v>-5.9867399999999999E-3</v>
       </c>
       <c r="G43" s="1">
+        <v>0.35699239999999999</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.35704259999999999</v>
+      </c>
+      <c r="I43" s="1">
+        <v>90.960759999999993</v>
+      </c>
+      <c r="J43" s="1">
         <v>360.49599999999998</v>
       </c>
-      <c r="H43" s="1">
+      <c r="K43" s="1">
+        <v>335.54300000000001</v>
+      </c>
+      <c r="L43" s="1">
+        <v>41</v>
+      </c>
+      <c r="M43" s="1">
         <v>655</v>
       </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
+      <c r="N43" s="1">
+        <v>110.4088</v>
+      </c>
+      <c r="O43" s="1">
+        <v>144.61879999999999</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0.6485881</v>
+      </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1.4014009999999999</v>
       </c>
       <c r="B44" s="1">
-        <v>0.120045</v>
+        <v>5.998469E-2</v>
       </c>
       <c r="C44" s="1">
-        <v>2.5151159999999999E-2</v>
+        <v>1.256765E-2</v>
       </c>
       <c r="D44" s="1">
-        <v>-0.13929510000000001</v>
+        <v>6.1287099999999997E-2</v>
       </c>
       <c r="E44" s="1">
-        <v>0.71918079999999995</v>
+        <v>11.833130000000001</v>
       </c>
       <c r="F44" s="1">
-        <v>0.73254629999999998</v>
+        <v>-6.9603650000000003E-2</v>
       </c>
       <c r="G44" s="1">
+        <v>0.35936370000000001</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.36604229999999999</v>
+      </c>
+      <c r="I44" s="1">
+        <v>100.96169999999999</v>
+      </c>
+      <c r="J44" s="1">
         <v>371.8331</v>
       </c>
-      <c r="H44" s="1">
+      <c r="K44" s="1">
+        <v>344.8621</v>
+      </c>
+      <c r="L44" s="1">
+        <v>42</v>
+      </c>
+      <c r="M44" s="1">
         <v>656</v>
       </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
+      <c r="N44" s="1">
+        <v>107.31489999999999</v>
+      </c>
+      <c r="O44" s="1">
+        <v>140.28729999999999</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0.66066950000000002</v>
+      </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1.434768</v>
       </c>
       <c r="B45" s="1">
-        <v>0.1127544</v>
+        <v>5.634165E-2</v>
       </c>
       <c r="C45" s="1">
-        <v>4.9049879999999997E-2</v>
+        <v>2.450948E-2</v>
       </c>
       <c r="D45" s="1">
-        <v>-0.27917409999999998</v>
+        <v>6.1441809999999999E-2</v>
       </c>
       <c r="E45" s="1">
-        <v>0.6806236</v>
+        <v>23.509779999999999</v>
       </c>
       <c r="F45" s="1">
-        <v>0.73565389999999997</v>
+        <v>-0.13949909999999999</v>
       </c>
       <c r="G45" s="1">
+        <v>0.34009729999999999</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.36759510000000001</v>
+      </c>
+      <c r="I45" s="1">
+        <v>112.3022</v>
+      </c>
+      <c r="J45" s="1">
         <v>383.50979999999998</v>
       </c>
-      <c r="H45" s="1">
+      <c r="K45" s="1">
+        <v>344.65140000000002</v>
+      </c>
+      <c r="L45" s="1">
+        <v>43</v>
+      </c>
+      <c r="M45" s="1">
         <v>657</v>
       </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
+      <c r="N45" s="1">
+        <v>102.7182</v>
+      </c>
+      <c r="O45" s="1">
+        <v>135.8674</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0.67315460000000005</v>
+      </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1.468135</v>
       </c>
       <c r="B46" s="1">
-        <v>0.1014148</v>
+        <v>5.0675440000000002E-2</v>
       </c>
       <c r="C46" s="1">
-        <v>7.0571490000000001E-2</v>
+        <v>3.5263500000000003E-2</v>
       </c>
       <c r="D46" s="1">
-        <v>-0.42827470000000001</v>
+        <v>6.1737470000000003E-2</v>
       </c>
       <c r="E46" s="1">
-        <v>0.59875129999999999</v>
+        <v>34.832889999999999</v>
       </c>
       <c r="F46" s="1">
-        <v>0.73615370000000002</v>
+        <v>-0.21400240000000001</v>
       </c>
       <c r="G46" s="1">
+        <v>0.29918689999999998</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.36784480000000003</v>
+      </c>
+      <c r="I46" s="1">
+        <v>125.5754</v>
+      </c>
+      <c r="J46" s="1">
         <v>394.8329</v>
       </c>
-      <c r="H46" s="1">
+      <c r="K46" s="1">
+        <v>345.98250000000002</v>
+      </c>
+      <c r="L46" s="1">
+        <v>44</v>
+      </c>
+      <c r="M46" s="1">
         <v>658</v>
       </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
+      <c r="N46" s="1">
+        <v>97.237570000000005</v>
+      </c>
+      <c r="O46" s="1">
+        <v>132.06630000000001</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0.68531010000000003</v>
+      </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1.5015019999999999</v>
       </c>
       <c r="B47" s="1">
-        <v>8.4174150000000003E-2</v>
+        <v>4.2060550000000002E-2</v>
       </c>
       <c r="C47" s="1">
-        <v>8.9006589999999997E-2</v>
+        <v>4.4475239999999999E-2</v>
       </c>
       <c r="D47" s="1">
-        <v>-0.55449809999999999</v>
+        <v>6.1213860000000002E-2</v>
       </c>
       <c r="E47" s="1">
-        <v>0.50304090000000001</v>
+        <v>46.598370000000003</v>
       </c>
       <c r="F47" s="1">
-        <v>0.7486777</v>
+        <v>-0.2770743</v>
       </c>
       <c r="G47" s="1">
+        <v>0.25136190000000003</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.37410290000000002</v>
+      </c>
+      <c r="I47" s="1">
+        <v>137.78569999999999</v>
+      </c>
+      <c r="J47" s="1">
         <v>406.59840000000003</v>
       </c>
-      <c r="H47" s="1">
+      <c r="K47" s="1">
+        <v>351.1035</v>
+      </c>
+      <c r="L47" s="1">
+        <v>45</v>
+      </c>
+      <c r="M47" s="1">
         <v>659</v>
       </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
+      <c r="N47" s="1">
+        <v>90.784530000000004</v>
+      </c>
+      <c r="O47" s="1">
+        <v>129.0608</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0.6979225</v>
+      </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1.5348679999999999</v>
       </c>
       <c r="B48" s="1">
-        <v>6.4411259999999998E-2</v>
+        <v>3.2185329999999998E-2</v>
       </c>
       <c r="C48" s="1">
-        <v>0.1041411</v>
-      </c>
-      <c r="G48" s="1">
+        <v>5.2037739999999999E-2</v>
+      </c>
+      <c r="D48" s="1">
+        <v>6.1186780000000003E-2</v>
+      </c>
+      <c r="E48" s="1">
+        <v>58.263219999999997</v>
+      </c>
+      <c r="J48" s="1">
         <v>418.26319999999998</v>
       </c>
-      <c r="H48" s="1">
+      <c r="L48" s="1">
+        <v>46</v>
+      </c>
+      <c r="M48" s="1">
         <v>660</v>
       </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-    </row>
-    <row r="49" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
+      <c r="N48" s="1">
+        <v>84.419889999999995</v>
+      </c>
+      <c r="O48" s="1">
+        <v>126.67400000000001</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0.71036080000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1998,38 +2798,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -2037,16 +2861,39 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>-0.23223150000000001</v>
+        <v>-0.11604250000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>0.51539500000000005</v>
-      </c>
-      <c r="G2" s="1">
+        <v>0.25753510000000002</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.28247159999999999</v>
+      </c>
+      <c r="E2" s="1">
         <v>114.25579999999999</v>
       </c>
-      <c r="H2" s="1">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1">
+        <v>114.25579999999999</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>614</v>
+      </c>
+      <c r="N2" s="1">
+        <v>179.21340000000001</v>
+      </c>
+      <c r="O2" s="1">
+        <v>46.877830000000003</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2054,1559 +2901,2285 @@
         <v>3.3366699999999999E-2</v>
       </c>
       <c r="B3" s="1">
-        <v>-0.2208938</v>
+        <v>-0.1103773</v>
       </c>
       <c r="C3" s="1">
-        <v>0.47128239999999999</v>
+        <v>0.2354926</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4261354</v>
+        <v>0.2600768</v>
       </c>
       <c r="E3" s="1">
-        <v>-1.420887</v>
+        <v>115.1129</v>
       </c>
       <c r="F3" s="1">
-        <v>1.483412</v>
+        <v>0.21293339999999999</v>
       </c>
       <c r="G3" s="1">
+        <v>-0.70999590000000001</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.74123870000000003</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-73.305589999999995</v>
+      </c>
+      <c r="J3" s="1">
         <v>115.1129</v>
       </c>
-      <c r="H3" s="1">
+      <c r="K3" s="1">
+        <v>23.934190000000001</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
         <v>615</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="N3" s="1">
+        <v>177.7654</v>
+      </c>
+      <c r="O3" s="1">
+        <v>55.008699999999997</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2.2758819999999999E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>6.6733399999999998E-2</v>
       </c>
       <c r="B4" s="1">
-        <v>-0.203794</v>
+        <v>-0.1018328</v>
       </c>
       <c r="C4" s="1">
-        <v>0.42057440000000001</v>
+        <v>0.2101546</v>
       </c>
       <c r="D4" s="1">
-        <v>0.40065269999999997</v>
+        <v>0.23352700000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>-1.504032</v>
+        <v>115.85299999999999</v>
       </c>
       <c r="F4" s="1">
-        <v>1.5564819999999999</v>
+        <v>0.20020009999999999</v>
       </c>
       <c r="G4" s="1">
+        <v>-0.75154209999999999</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.77775030000000001</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-75.083609999999993</v>
+      </c>
+      <c r="J4" s="1">
         <v>115.85299999999999</v>
       </c>
-      <c r="H4" s="1">
+      <c r="K4" s="1">
+        <v>37.720779999999998</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1">
         <v>616</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="N4" s="1">
+        <v>177.20849999999999</v>
+      </c>
+      <c r="O4" s="1">
+        <v>63.807870000000001</v>
+      </c>
+      <c r="P4" s="1">
+        <v>4.9498739999999999E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.1001001</v>
       </c>
       <c r="B5" s="1">
-        <v>-0.19415689999999999</v>
+        <v>-9.7017240000000005E-2</v>
       </c>
       <c r="C5" s="1">
-        <v>0.3709132</v>
+        <v>0.1853397</v>
       </c>
       <c r="D5" s="1">
-        <v>0.3540143</v>
+        <v>0.2091964</v>
       </c>
       <c r="E5" s="1">
-        <v>-1.4401489999999999</v>
+        <v>117.6301</v>
       </c>
       <c r="F5" s="1">
-        <v>1.483023</v>
+        <v>0.17689559999999999</v>
       </c>
       <c r="G5" s="1">
+        <v>-0.71962079999999995</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.74104400000000004</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-76.189509999999999</v>
+      </c>
+      <c r="J5" s="1">
         <v>117.6301</v>
       </c>
-      <c r="H5" s="1">
+      <c r="K5" s="1">
+        <v>47.792140000000003</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1">
         <v>617</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="N5" s="1">
+        <v>175.44200000000001</v>
+      </c>
+      <c r="O5" s="1">
+        <v>72.84872</v>
+      </c>
+      <c r="P5" s="1">
+        <v>7.4776609999999993E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.1334668</v>
       </c>
       <c r="B6" s="1">
-        <v>-0.18016940000000001</v>
+        <v>-9.0027930000000006E-2</v>
       </c>
       <c r="C6" s="1">
-        <v>0.32446829999999999</v>
+        <v>0.1621319</v>
       </c>
       <c r="D6" s="1">
-        <v>0.38269189999999997</v>
+        <v>0.18545020000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>-1.401195</v>
+        <v>119.0424</v>
       </c>
       <c r="F6" s="1">
-        <v>1.4525159999999999</v>
+        <v>0.19122529999999999</v>
       </c>
       <c r="G6" s="1">
+        <v>-0.700156</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.7258</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-74.724040000000002</v>
+      </c>
+      <c r="J6" s="1">
         <v>119.0424</v>
       </c>
-      <c r="H6" s="1">
+      <c r="K6" s="1">
+        <v>54.886510000000001</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1">
         <v>618</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="N6" s="1">
+        <v>174.97049999999999</v>
+      </c>
+      <c r="O6" s="1">
+        <v>81.277010000000004</v>
+      </c>
+      <c r="P6" s="1">
+        <v>9.9014030000000003E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.1668335</v>
       </c>
       <c r="B7" s="1">
-        <v>-0.1686185</v>
+        <v>-8.4256120000000004E-2</v>
       </c>
       <c r="C7" s="1">
-        <v>0.2774066</v>
+        <v>0.13861589999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>0.36813170000000001</v>
+        <v>0.1622142</v>
       </c>
       <c r="E7" s="1">
-        <v>-1.392919</v>
+        <v>121.2929</v>
       </c>
       <c r="F7" s="1">
-        <v>1.440744</v>
+        <v>0.1839498</v>
       </c>
       <c r="G7" s="1">
+        <v>-0.69602039999999998</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.71991799999999995</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-75.195899999999995</v>
+      </c>
+      <c r="J7" s="1">
         <v>121.2929</v>
       </c>
-      <c r="H7" s="1">
+      <c r="K7" s="1">
+        <v>72.872829999999993</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1">
         <v>619</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="N7" s="1">
+        <v>173.61490000000001</v>
+      </c>
+      <c r="O7" s="1">
+        <v>90.353629999999995</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.123228</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.20020019999999999</v>
       </c>
       <c r="B8" s="1">
-        <v>-0.15560280000000001</v>
+        <v>-7.7752340000000003E-2</v>
       </c>
       <c r="C8" s="1">
-        <v>0.2315141</v>
+        <v>0.1156841</v>
       </c>
       <c r="D8" s="1">
-        <v>0.3603093</v>
+        <v>0.13938519999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>-1.4407209999999999</v>
+        <v>123.9054</v>
       </c>
       <c r="F8" s="1">
-        <v>1.485093</v>
+        <v>0.18004110000000001</v>
       </c>
       <c r="G8" s="1">
+        <v>-0.7199065</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.74207829999999997</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-75.958929999999995</v>
+      </c>
+      <c r="J8" s="1">
         <v>123.9054</v>
       </c>
-      <c r="H8" s="1">
+      <c r="K8" s="1">
+        <v>109.1328</v>
+      </c>
+      <c r="L8" s="1">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1">
         <v>620</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="N8" s="1">
+        <v>172.78980000000001</v>
+      </c>
+      <c r="O8" s="1">
+        <v>98.722989999999996</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.14706420000000001</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.23356689999999999</v>
       </c>
       <c r="B9" s="1">
-        <v>-0.14457390000000001</v>
+        <v>-7.2241369999999999E-2</v>
       </c>
       <c r="C9" s="1">
-        <v>0.18126239999999999</v>
+        <v>9.0574089999999996E-2</v>
       </c>
       <c r="D9" s="1">
-        <v>0.3473347</v>
+        <v>0.1158554</v>
       </c>
       <c r="E9" s="1">
-        <v>-1.4105639999999999</v>
+        <v>128.57570000000001</v>
       </c>
       <c r="F9" s="1">
-        <v>1.452698</v>
+        <v>0.17355789999999999</v>
       </c>
       <c r="G9" s="1">
+        <v>-0.70483750000000001</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.72589130000000002</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-76.166790000000006</v>
+      </c>
+      <c r="J9" s="1">
         <v>128.57570000000001</v>
       </c>
-      <c r="H9" s="1">
+      <c r="K9" s="1">
+        <v>150.47550000000001</v>
+      </c>
+      <c r="L9" s="1">
+        <v>7</v>
+      </c>
+      <c r="M9" s="1">
         <v>621</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="N9" s="1">
+        <v>171.66990000000001</v>
+      </c>
+      <c r="O9" s="1">
+        <v>107.9764</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.17277190000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.26693359999999999</v>
       </c>
       <c r="B10" s="1">
-        <v>-0.13242390000000001</v>
+        <v>-6.6170229999999997E-2</v>
       </c>
       <c r="C10" s="1">
-        <v>0.13738230000000001</v>
+        <v>6.8647879999999994E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>0.36147200000000002</v>
+        <v>9.5346890000000004E-2</v>
       </c>
       <c r="E10" s="1">
-        <v>-1.377148</v>
+        <v>133.94720000000001</v>
       </c>
       <c r="F10" s="1">
-        <v>1.4237979999999999</v>
+        <v>0.18062210000000001</v>
       </c>
       <c r="G10" s="1">
+        <v>-0.68814019999999998</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.71145009999999997</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-75.292839999999998</v>
+      </c>
+      <c r="J10" s="1">
         <v>133.94720000000001</v>
       </c>
-      <c r="H10" s="1">
+      <c r="K10" s="1">
+        <v>222.57759999999999</v>
+      </c>
+      <c r="L10" s="1">
+        <v>8</v>
+      </c>
+      <c r="M10" s="1">
         <v>622</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="N10" s="1">
+        <v>170.66800000000001</v>
+      </c>
+      <c r="O10" s="1">
+        <v>115.7564</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.19552310000000001</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.30030030000000002</v>
       </c>
       <c r="B11" s="1">
-        <v>-0.12045160000000001</v>
+        <v>-6.0187839999999999E-2</v>
       </c>
       <c r="C11" s="1">
-        <v>8.9360629999999996E-2</v>
+        <v>4.4652150000000002E-2</v>
       </c>
       <c r="D11" s="1">
-        <v>0.3313025</v>
+        <v>7.4942579999999995E-2</v>
       </c>
       <c r="E11" s="1">
-        <v>-1.4666440000000001</v>
+        <v>143.429</v>
       </c>
       <c r="F11" s="1">
-        <v>1.503598</v>
+        <v>0.16554679999999999</v>
       </c>
       <c r="G11" s="1">
+        <v>-0.73285979999999995</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.75132500000000002</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-77.271010000000004</v>
+      </c>
+      <c r="J11" s="1">
         <v>143.429</v>
       </c>
-      <c r="H11" s="1">
+      <c r="K11" s="1">
+        <v>394.8304</v>
+      </c>
+      <c r="L11" s="1">
+        <v>9</v>
+      </c>
+      <c r="M11" s="1">
         <v>623</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="N11" s="1">
+        <v>169.6071</v>
+      </c>
+      <c r="O11" s="1">
+        <v>124.4794</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.22025330000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.33366699999999999</v>
       </c>
       <c r="B12" s="1">
-        <v>-0.110315</v>
+        <v>-5.512272E-2</v>
       </c>
       <c r="C12" s="1">
-        <v>3.95082E-2</v>
+        <v>1.9741649999999999E-2</v>
       </c>
       <c r="D12" s="1">
-        <v>1.26576E-2</v>
+        <v>5.8551239999999997E-2</v>
       </c>
       <c r="E12" s="1">
-        <v>-1.0880430000000001</v>
+        <v>160.2955</v>
       </c>
       <c r="F12" s="1">
-        <v>1.088117</v>
+        <v>6.3248100000000002E-3</v>
       </c>
       <c r="G12" s="1">
+        <v>-0.54367869999999996</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.54371550000000002</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-89.333489999999998</v>
+      </c>
+      <c r="J12" s="1">
         <v>160.2955</v>
       </c>
-      <c r="H12" s="1">
+      <c r="K12" s="1">
+        <v>428.54329999999999</v>
+      </c>
+      <c r="L12" s="1">
+        <v>10</v>
+      </c>
+      <c r="M12" s="1">
         <v>624</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="N12" s="1">
+        <v>168.0223</v>
+      </c>
+      <c r="O12" s="1">
+        <v>134.15039999999999</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.24567349999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.36703370000000002</v>
       </c>
       <c r="B13" s="1">
-        <v>-0.1196069</v>
+        <v>-5.9765770000000003E-2</v>
       </c>
       <c r="C13" s="1">
-        <v>1.6751809999999999E-2</v>
+        <v>8.3706240000000001E-3</v>
       </c>
       <c r="D13" s="1">
-        <v>-0.12847500000000001</v>
+        <v>6.0349100000000003E-2</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.71624129999999997</v>
+        <v>172.02719999999999</v>
       </c>
       <c r="F13" s="1">
-        <v>0.7276726</v>
+        <v>-6.4197009999999999E-2</v>
       </c>
       <c r="G13" s="1">
+        <v>-0.35789490000000002</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.36360690000000001</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-100.1692</v>
+      </c>
+      <c r="J13" s="1">
         <v>172.02719999999999</v>
       </c>
-      <c r="H13" s="1">
+      <c r="K13" s="1">
+        <v>355.03559999999999</v>
+      </c>
+      <c r="L13" s="1">
+        <v>11</v>
+      </c>
+      <c r="M13" s="1">
         <v>625</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="N13" s="1">
+        <v>163.56549999999999</v>
+      </c>
+      <c r="O13" s="1">
+        <v>138.60720000000001</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.25795600000000002</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.40040039999999999</v>
       </c>
       <c r="B14" s="1">
-        <v>-0.1188886</v>
+        <v>-5.9406809999999997E-2</v>
       </c>
       <c r="C14" s="1">
-        <v>-8.2890159999999997E-3</v>
+        <v>-4.1418959999999999E-3</v>
       </c>
       <c r="D14" s="1">
-        <v>3.6140100000000001E-2</v>
+        <v>5.9551020000000003E-2</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.74129590000000001</v>
+        <v>-176.01169999999999</v>
       </c>
       <c r="F14" s="1">
-        <v>0.74217639999999996</v>
+        <v>1.8058660000000001E-2</v>
       </c>
       <c r="G14" s="1">
+        <v>-0.37041429999999997</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.37085430000000003</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-87.208889999999997</v>
+      </c>
+      <c r="J14" s="1">
         <v>183.98830000000001</v>
       </c>
-      <c r="H14" s="1">
+      <c r="K14" s="1">
+        <v>353.21100000000001</v>
+      </c>
+      <c r="L14" s="1">
+        <v>12</v>
+      </c>
+      <c r="M14" s="1">
         <v>626</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="N14" s="1">
+        <v>160.05889999999999</v>
+      </c>
+      <c r="O14" s="1">
+        <v>142.75049999999999</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.27047359999999998</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.43376710000000002</v>
       </c>
       <c r="B15" s="1">
-        <v>-0.1171952</v>
+        <v>-5.8560649999999999E-2</v>
       </c>
       <c r="C15" s="1">
-        <v>-3.2717389999999999E-2</v>
+        <v>-1.6348379999999999E-2</v>
       </c>
       <c r="D15" s="1">
-        <v>0.1736057</v>
+        <v>6.0799829999999999E-2</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.71676799999999996</v>
+        <v>-164.40190000000001</v>
       </c>
       <c r="F15" s="1">
-        <v>0.73749260000000005</v>
+        <v>8.6748140000000001E-2</v>
       </c>
       <c r="G15" s="1">
+        <v>-0.35815809999999998</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.3685138</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-76.384799999999998</v>
+      </c>
+      <c r="J15" s="1">
         <v>195.59809999999999</v>
       </c>
-      <c r="H15" s="1">
+      <c r="K15" s="1">
+        <v>353.97649999999999</v>
+      </c>
+      <c r="L15" s="1">
+        <v>13</v>
+      </c>
+      <c r="M15" s="1">
         <v>627</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="N15" s="1">
+        <v>156.9941</v>
+      </c>
+      <c r="O15" s="1">
+        <v>147.11199999999999</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.2827094</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.46713379999999999</v>
       </c>
       <c r="B16" s="1">
-        <v>-0.1073033</v>
+        <v>-5.3617810000000002E-2</v>
       </c>
       <c r="C16" s="1">
-        <v>-5.6121379999999998E-2</v>
+        <v>-2.8042999999999998E-2</v>
       </c>
       <c r="D16" s="1">
-        <v>0.39626820000000001</v>
+        <v>6.0508510000000001E-2</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.67260629999999999</v>
+        <v>-152.3897</v>
       </c>
       <c r="F16" s="1">
-        <v>0.78065850000000003</v>
+        <v>0.1980092</v>
       </c>
       <c r="G16" s="1">
+        <v>-0.33609119999999998</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.39008320000000002</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-59.495399999999997</v>
+      </c>
+      <c r="J16" s="1">
         <v>207.6103</v>
       </c>
-      <c r="H16" s="1">
+      <c r="K16" s="1">
+        <v>373.66910000000001</v>
+      </c>
+      <c r="L16" s="1">
+        <v>14</v>
+      </c>
+      <c r="M16" s="1">
         <v>628</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="N16" s="1">
+        <v>155.2259</v>
+      </c>
+      <c r="O16" s="1">
+        <v>151.35560000000001</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.29540569999999999</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.50050050000000001</v>
       </c>
       <c r="B17" s="1">
-        <v>-9.0750849999999994E-2</v>
+        <v>-4.5346820000000003E-2</v>
       </c>
       <c r="C17" s="1">
-        <v>-7.7602699999999997E-2</v>
+        <v>-3.8776890000000001E-2</v>
       </c>
       <c r="D17" s="1">
-        <v>0.48771439999999999</v>
+        <v>5.9665580000000003E-2</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.60364320000000005</v>
+        <v>-139.46559999999999</v>
       </c>
       <c r="F17" s="1">
-        <v>0.77604799999999996</v>
+        <v>0.24370349999999999</v>
       </c>
       <c r="G17" s="1">
+        <v>-0.30163139999999999</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.3877794</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-51.063470000000002</v>
+      </c>
+      <c r="J17" s="1">
         <v>220.53440000000001</v>
       </c>
-      <c r="H17" s="1">
+      <c r="K17" s="1">
+        <v>368.60219999999998</v>
+      </c>
+      <c r="L17" s="1">
+        <v>15</v>
+      </c>
+      <c r="M17" s="1">
         <v>629</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+      <c r="N17" s="1">
+        <v>155.167</v>
+      </c>
+      <c r="O17" s="1">
+        <v>155.06880000000001</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.30895660000000003</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.53386719999999999</v>
       </c>
       <c r="B18" s="1">
-        <v>-7.4756420000000004E-2</v>
+        <v>-3.7354650000000003E-2</v>
       </c>
       <c r="C18" s="1">
-        <v>-9.6404539999999997E-2</v>
+        <v>-4.8171890000000002E-2</v>
       </c>
       <c r="D18" s="1">
-        <v>0.59505680000000005</v>
+        <v>6.0958190000000002E-2</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.50920540000000003</v>
+        <v>-127.7916</v>
       </c>
       <c r="F18" s="1">
-        <v>0.78318759999999998</v>
+        <v>0.29734090000000002</v>
       </c>
       <c r="G18" s="1">
+        <v>-0.25444220000000001</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.391347</v>
+      </c>
+      <c r="I18" s="1">
+        <v>-40.554450000000003</v>
+      </c>
+      <c r="J18" s="1">
         <v>232.20840000000001</v>
       </c>
-      <c r="H18" s="1">
+      <c r="K18" s="1">
+        <v>372.90649999999999</v>
+      </c>
+      <c r="L18" s="1">
+        <v>16</v>
+      </c>
+      <c r="M18" s="1">
         <v>630</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+      <c r="N18" s="1">
+        <v>155.167</v>
+      </c>
+      <c r="O18" s="1">
+        <v>158.60509999999999</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.3212911</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.56723389999999996</v>
       </c>
       <c r="B19" s="1">
-        <v>-5.1040679999999998E-2</v>
+        <v>-2.5504260000000001E-2</v>
       </c>
       <c r="C19" s="1">
-        <v>-0.11158369999999999</v>
+        <v>-5.5756689999999998E-2</v>
       </c>
       <c r="D19" s="1">
-        <v>0.69054660000000001</v>
+        <v>6.1312930000000002E-2</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.33204919999999999</v>
+        <v>-114.58029999999999</v>
       </c>
       <c r="F19" s="1">
-        <v>0.76623180000000002</v>
+        <v>0.34505570000000002</v>
       </c>
       <c r="G19" s="1">
+        <v>-0.16591990000000001</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.3828744</v>
+      </c>
+      <c r="I19" s="1">
+        <v>-25.68056</v>
+      </c>
+      <c r="J19" s="1">
         <v>245.41970000000001</v>
       </c>
-      <c r="H19" s="1">
+      <c r="K19" s="1">
+        <v>362.57679999999999</v>
+      </c>
+      <c r="L19" s="1">
+        <v>17</v>
+      </c>
+      <c r="M19" s="1">
         <v>631</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
+      <c r="N19" s="1">
+        <v>156.2868</v>
+      </c>
+      <c r="O19" s="1">
+        <v>161.0806</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.33536100000000002</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.60060060000000004</v>
       </c>
       <c r="B20" s="1">
-        <v>-2.8673899999999999E-2</v>
+        <v>-1.4327909999999999E-2</v>
       </c>
       <c r="C20" s="1">
-        <v>-0.1185633</v>
+        <v>-5.9244289999999998E-2</v>
       </c>
       <c r="D20" s="1">
-        <v>0.73747180000000001</v>
+        <v>6.0952239999999998E-2</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.13647580000000001</v>
+        <v>-103.5956</v>
       </c>
       <c r="F20" s="1">
-        <v>0.74999349999999998</v>
+        <v>0.36850349999999998</v>
       </c>
       <c r="G20" s="1">
+        <v>-6.8194879999999999E-2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.37476039999999999</v>
+      </c>
+      <c r="I20" s="1">
+        <v>-10.484489999999999</v>
+      </c>
+      <c r="J20" s="1">
         <v>256.40440000000001</v>
       </c>
-      <c r="H20" s="1">
+      <c r="K20" s="1">
+        <v>355.3426</v>
+      </c>
+      <c r="L20" s="1">
+        <v>18</v>
+      </c>
+      <c r="M20" s="1">
         <v>632</v>
       </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+      <c r="N20" s="1">
+        <v>157.17089999999999</v>
+      </c>
+      <c r="O20" s="1">
+        <v>162.78980000000001</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.34706880000000001</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.63396730000000001</v>
       </c>
       <c r="B21" s="1">
-        <v>-1.8266809999999999E-3</v>
+        <v>-9.1276479999999999E-4</v>
       </c>
       <c r="C21" s="1">
-        <v>-0.1206912</v>
+        <v>-6.0307560000000003E-2</v>
       </c>
       <c r="D21" s="1">
-        <v>0.80489560000000004</v>
+        <v>6.0314470000000002E-2</v>
       </c>
       <c r="E21" s="1">
-        <v>1.282346E-2</v>
+        <v>-90.867109999999997</v>
       </c>
       <c r="F21" s="1">
-        <v>0.80499779999999999</v>
+        <v>0.4021941</v>
       </c>
       <c r="G21" s="1">
+        <v>6.4076879999999999E-3</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.40224520000000002</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.91274929999999999</v>
+      </c>
+      <c r="J21" s="1">
         <v>269.13290000000001</v>
       </c>
-      <c r="H21" s="1">
+      <c r="K21" s="1">
+        <v>383.69009999999997</v>
+      </c>
+      <c r="L21" s="1">
+        <v>19</v>
+      </c>
+      <c r="M21" s="1">
         <v>633</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="N21" s="1">
+        <v>158.70330000000001</v>
+      </c>
+      <c r="O21" s="1">
+        <v>163.26130000000001</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.36052600000000001</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.66733399999999998</v>
       </c>
       <c r="B22" s="1">
-        <v>2.5039530000000001E-2</v>
+        <v>1.251187E-2</v>
       </c>
       <c r="C22" s="1">
-        <v>-0.1177076</v>
+        <v>-5.8816680000000003E-2</v>
       </c>
       <c r="D22" s="1">
-        <v>0.7591502</v>
+        <v>6.013276E-2</v>
       </c>
       <c r="E22" s="1">
-        <v>0.13579369999999999</v>
+        <v>-77.990679999999998</v>
       </c>
       <c r="F22" s="1">
-        <v>0.77119970000000004</v>
+        <v>0.3793358</v>
       </c>
       <c r="G22" s="1">
+        <v>6.7854049999999999E-2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.3853568</v>
+      </c>
+      <c r="I22" s="1">
+        <v>10.141579999999999</v>
+      </c>
+      <c r="J22" s="1">
         <v>282.0093</v>
       </c>
-      <c r="H22" s="1">
+      <c r="K22" s="1">
+        <v>367.05549999999999</v>
+      </c>
+      <c r="L22" s="1">
+        <v>20</v>
+      </c>
+      <c r="M22" s="1">
         <v>634</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="N22" s="1">
+        <v>160.4126</v>
+      </c>
+      <c r="O22" s="1">
+        <v>162.84870000000001</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.37403320000000001</v>
+      </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.70070069999999995</v>
       </c>
       <c r="B23" s="1">
-        <v>4.8833990000000001E-2</v>
+        <v>2.4401610000000001E-2</v>
       </c>
       <c r="C23" s="1">
-        <v>-0.1116292</v>
+        <v>-5.5779429999999998E-2</v>
       </c>
       <c r="D23" s="1">
-        <v>0.68915539999999997</v>
+        <v>6.0883359999999997E-2</v>
       </c>
       <c r="E23" s="1">
-        <v>0.27708830000000001</v>
+        <v>-66.372259999999997</v>
       </c>
       <c r="F23" s="1">
-        <v>0.74277389999999999</v>
+        <v>0.34436050000000001</v>
       </c>
       <c r="G23" s="1">
+        <v>0.13845679999999999</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.3711528</v>
+      </c>
+      <c r="I23" s="1">
+        <v>21.903549999999999</v>
+      </c>
+      <c r="J23" s="1">
         <v>293.6277</v>
       </c>
-      <c r="H23" s="1">
+      <c r="K23" s="1">
+        <v>353.49009999999998</v>
+      </c>
+      <c r="L23" s="1">
+        <v>21</v>
+      </c>
+      <c r="M23" s="1">
         <v>635</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+      <c r="N23" s="1">
+        <v>161.5324</v>
+      </c>
+      <c r="O23" s="1">
+        <v>161.4931</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.3863048</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.73406740000000004</v>
       </c>
       <c r="B24" s="1">
-        <v>7.1029209999999995E-2</v>
+        <v>3.5492219999999998E-2</v>
       </c>
       <c r="C24" s="1">
-        <v>-9.9216520000000002E-2</v>
+        <v>-4.9576990000000001E-2</v>
       </c>
       <c r="D24" s="1">
-        <v>0.61323369999999999</v>
+        <v>6.0971919999999999E-2</v>
       </c>
       <c r="E24" s="1">
-        <v>0.45974209999999999</v>
+        <v>-54.401090000000003</v>
       </c>
       <c r="F24" s="1">
-        <v>0.76643229999999996</v>
+        <v>0.30642360000000002</v>
       </c>
       <c r="G24" s="1">
+        <v>0.22972619999999999</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.3829746</v>
+      </c>
+      <c r="I24" s="1">
+        <v>36.858939999999997</v>
+      </c>
+      <c r="J24" s="1">
         <v>305.59890000000001</v>
       </c>
-      <c r="H24" s="1">
+      <c r="K24" s="1">
+        <v>364.5249</v>
+      </c>
+      <c r="L24" s="1">
+        <v>22</v>
+      </c>
+      <c r="M24" s="1">
         <v>636</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
+      <c r="N24" s="1">
+        <v>162.41650000000001</v>
+      </c>
+      <c r="O24" s="1">
+        <v>159.6071</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0.39901189999999997</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.76743410000000001</v>
       </c>
       <c r="B25" s="1">
-        <v>8.9757160000000002E-2</v>
+        <v>4.4850290000000001E-2</v>
       </c>
       <c r="C25" s="1">
-        <v>-8.0949069999999998E-2</v>
+        <v>-4.0449020000000002E-2</v>
       </c>
       <c r="D25" s="1">
-        <v>0.60836699999999999</v>
+        <v>6.0395959999999999E-2</v>
       </c>
       <c r="E25" s="1">
-        <v>0.78925710000000004</v>
+        <v>-42.04627</v>
       </c>
       <c r="F25" s="1">
-        <v>0.99651250000000002</v>
+        <v>0.30399179999999998</v>
       </c>
       <c r="G25" s="1">
+        <v>0.3943798</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.4979422</v>
+      </c>
+      <c r="I25" s="1">
+        <v>52.37462</v>
+      </c>
+      <c r="J25" s="1">
         <v>317.95370000000003</v>
       </c>
-      <c r="H25" s="1">
+      <c r="K25" s="1">
+        <v>476.01089999999999</v>
+      </c>
+      <c r="L25" s="1">
+        <v>23</v>
+      </c>
+      <c r="M25" s="1">
         <v>637</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
+      <c r="N25" s="1">
+        <v>162.47540000000001</v>
+      </c>
+      <c r="O25" s="1">
+        <v>156.48330000000001</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.41208450000000002</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.80080079999999998</v>
       </c>
       <c r="B26" s="1">
-        <v>0.11162759999999999</v>
+        <v>5.5778620000000001E-2</v>
       </c>
       <c r="C26" s="1">
-        <v>-4.6546700000000003E-2</v>
+        <v>-2.325868E-2</v>
       </c>
       <c r="D26" s="1">
-        <v>0.44687100000000002</v>
+        <v>6.0433609999999999E-2</v>
       </c>
       <c r="E26" s="1">
-        <v>0.84578339999999996</v>
+        <v>-22.635259999999999</v>
       </c>
       <c r="F26" s="1">
-        <v>0.95657890000000001</v>
+        <v>0.22329470000000001</v>
       </c>
       <c r="G26" s="1">
+        <v>0.42262509999999998</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.47798800000000002</v>
+      </c>
+      <c r="I26" s="1">
+        <v>62.150190000000002</v>
+      </c>
+      <c r="J26" s="1">
         <v>337.36470000000003</v>
       </c>
-      <c r="H26" s="1">
+      <c r="K26" s="1">
+        <v>456.50510000000003</v>
+      </c>
+      <c r="L26" s="1">
+        <v>24</v>
+      </c>
+      <c r="M26" s="1">
         <v>638</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
+      <c r="N26" s="1">
+        <v>161.70920000000001</v>
+      </c>
+      <c r="O26" s="1">
+        <v>149.35169999999999</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.43245450000000002</v>
+      </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.83416749999999995</v>
       </c>
       <c r="B27" s="1">
-        <v>0.1195784</v>
+        <v>5.9751510000000001E-2</v>
       </c>
       <c r="C27" s="1">
-        <v>-2.4507069999999999E-2</v>
+        <v>-1.2245809999999999E-2</v>
       </c>
       <c r="D27" s="1">
-        <v>0.1642961</v>
+        <v>6.0993459999999999E-2</v>
       </c>
       <c r="E27" s="1">
-        <v>0.70821829999999997</v>
+        <v>-11.582140000000001</v>
       </c>
       <c r="F27" s="1">
-        <v>0.72702580000000006</v>
+        <v>8.2096290000000002E-2</v>
       </c>
       <c r="G27" s="1">
+        <v>0.35388599999999998</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.36328369999999999</v>
+      </c>
+      <c r="I27" s="1">
+        <v>76.939260000000004</v>
+      </c>
+      <c r="J27" s="1">
         <v>348.41789999999997</v>
       </c>
-      <c r="H27" s="1">
+      <c r="K27" s="1">
+        <v>344.19760000000002</v>
+      </c>
+      <c r="L27" s="1">
+        <v>25</v>
+      </c>
+      <c r="M27" s="1">
         <v>639</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+      <c r="N27" s="1">
+        <v>159.88210000000001</v>
+      </c>
+      <c r="O27" s="1">
+        <v>145.5796</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.4441621</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.86753420000000003</v>
       </c>
       <c r="B28" s="1">
-        <v>0.1225916</v>
+        <v>6.1257190000000003E-2</v>
       </c>
       <c r="C28" s="1">
-        <v>7.1511350000000003E-4</v>
+        <v>3.5733139999999999E-4</v>
       </c>
       <c r="D28" s="1">
-        <v>1.4937279999999999E-3</v>
+        <v>6.1258229999999997E-2</v>
       </c>
       <c r="E28" s="1">
-        <v>0.74042859999999999</v>
+        <v>0.3342195</v>
       </c>
       <c r="F28" s="1">
-        <v>0.74043009999999998</v>
+        <v>7.4639330000000003E-4</v>
       </c>
       <c r="G28" s="1">
+        <v>0.369981</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.36998170000000002</v>
+      </c>
+      <c r="I28" s="1">
+        <v>89.884410000000003</v>
+      </c>
+      <c r="J28" s="1">
         <v>360.33420000000001</v>
       </c>
-      <c r="H28" s="1">
+      <c r="K28" s="1">
+        <v>349.70890000000003</v>
+      </c>
+      <c r="L28" s="1">
+        <v>26</v>
+      </c>
+      <c r="M28" s="1">
         <v>640</v>
       </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
+      <c r="N28" s="1">
+        <v>157.22989999999999</v>
+      </c>
+      <c r="O28" s="1">
+        <v>141.4538</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.45685480000000001</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.9009009</v>
       </c>
       <c r="B29" s="1">
-        <v>0.1196781</v>
+        <v>5.9801319999999998E-2</v>
       </c>
       <c r="C29" s="1">
-        <v>2.4904249999999999E-2</v>
+        <v>1.244428E-2</v>
       </c>
       <c r="D29" s="1">
-        <v>-0.1443952</v>
+        <v>6.1082379999999999E-2</v>
       </c>
       <c r="E29" s="1">
-        <v>0.74340079999999997</v>
+        <v>11.755129999999999</v>
       </c>
       <c r="F29" s="1">
-        <v>0.75729429999999998</v>
+        <v>-7.2152079999999993E-2</v>
       </c>
       <c r="G29" s="1">
+        <v>0.37146610000000002</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.37840849999999998</v>
+      </c>
+      <c r="I29" s="1">
+        <v>100.992</v>
+      </c>
+      <c r="J29" s="1">
         <v>371.75510000000003</v>
       </c>
-      <c r="H29" s="1">
+      <c r="K29" s="1">
+        <v>354.84530000000001</v>
+      </c>
+      <c r="L29" s="1">
+        <v>27</v>
+      </c>
+      <c r="M29" s="1">
         <v>641</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+      <c r="N29" s="1">
+        <v>153.39879999999999</v>
+      </c>
+      <c r="O29" s="1">
+        <v>138.1532</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.46902919999999998</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.93426759999999998</v>
       </c>
       <c r="B30" s="1">
-        <v>0.11295570000000001</v>
+        <v>5.6442230000000003E-2</v>
       </c>
       <c r="C30" s="1">
-        <v>5.032478E-2</v>
+        <v>2.514653E-2</v>
       </c>
       <c r="D30" s="1">
-        <v>-0.3085967</v>
+        <v>6.1790560000000001E-2</v>
       </c>
       <c r="E30" s="1">
-        <v>0.72577530000000001</v>
+        <v>24.014250000000001</v>
       </c>
       <c r="F30" s="1">
-        <v>0.78865810000000003</v>
+        <v>-0.15420110000000001</v>
       </c>
       <c r="G30" s="1">
+        <v>0.36265890000000001</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.3940805</v>
+      </c>
+      <c r="I30" s="1">
+        <v>113.035</v>
+      </c>
+      <c r="J30" s="1">
         <v>384.01429999999999</v>
       </c>
-      <c r="H30" s="1">
+      <c r="K30" s="1">
+        <v>370.90899999999999</v>
+      </c>
+      <c r="L30" s="1">
+        <v>28</v>
+      </c>
+      <c r="M30" s="1">
         <v>642</v>
       </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
+      <c r="N30" s="1">
+        <v>148.97839999999999</v>
+      </c>
+      <c r="O30" s="1">
+        <v>133.96860000000001</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0.48216809999999999</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.96763429999999995</v>
       </c>
       <c r="B31" s="1">
-        <v>9.9084359999999996E-2</v>
+        <v>4.9510949999999998E-2</v>
       </c>
       <c r="C31" s="1">
-        <v>7.3337700000000006E-2</v>
+        <v>3.6645740000000003E-2</v>
       </c>
       <c r="D31" s="1">
-        <v>-0.44921870000000003</v>
+        <v>6.1597440000000003E-2</v>
       </c>
       <c r="E31" s="1">
-        <v>0.61681299999999994</v>
+        <v>36.507150000000003</v>
       </c>
       <c r="F31" s="1">
-        <v>0.76305690000000004</v>
+        <v>-0.2244678</v>
       </c>
       <c r="G31" s="1">
+        <v>0.30821209999999999</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.38128800000000002</v>
+      </c>
+      <c r="I31" s="1">
+        <v>126.0655</v>
+      </c>
+      <c r="J31" s="1">
         <v>396.50709999999998</v>
       </c>
-      <c r="H31" s="1">
+      <c r="K31" s="1">
+        <v>356.31299999999999</v>
+      </c>
+      <c r="L31" s="1">
+        <v>29</v>
+      </c>
+      <c r="M31" s="1">
         <v>643</v>
       </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
+      <c r="N31" s="1">
+        <v>143.3792</v>
+      </c>
+      <c r="O31" s="1">
+        <v>130.13749999999999</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0.4955947</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1.001001</v>
       </c>
       <c r="B32" s="1">
-        <v>8.2977770000000006E-2</v>
+        <v>4.1462730000000003E-2</v>
       </c>
       <c r="C32" s="1">
-        <v>9.1486810000000002E-2</v>
+        <v>4.5714570000000003E-2</v>
       </c>
       <c r="D32" s="1">
-        <v>-0.55534490000000003</v>
+        <v>6.1716939999999998E-2</v>
       </c>
       <c r="E32" s="1">
-        <v>0.48246549999999999</v>
+        <v>47.792230000000004</v>
       </c>
       <c r="F32" s="1">
-        <v>0.73565000000000003</v>
+        <v>-0.27749740000000001</v>
       </c>
       <c r="G32" s="1">
+        <v>0.24108070000000001</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.36759320000000001</v>
+      </c>
+      <c r="I32" s="1">
+        <v>139.017</v>
+      </c>
+      <c r="J32" s="1">
         <v>407.79219999999998</v>
       </c>
-      <c r="H32" s="1">
+      <c r="K32" s="1">
+        <v>345.3947</v>
+      </c>
+      <c r="L32" s="1">
+        <v>30</v>
+      </c>
+      <c r="M32" s="1">
         <v>644</v>
       </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
+      <c r="N32" s="1">
+        <v>137.41669999999999</v>
+      </c>
+      <c r="O32" s="1">
+        <v>126.75</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.50771980000000005</v>
+      </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1.034368</v>
       </c>
       <c r="B33" s="1">
-        <v>6.2024309999999999E-2</v>
+        <v>3.099261E-2</v>
       </c>
       <c r="C33" s="1">
-        <v>0.1055343</v>
+        <v>5.2733870000000002E-2</v>
       </c>
       <c r="D33" s="1">
-        <v>-0.68464440000000004</v>
+        <v>6.1167010000000001E-2</v>
       </c>
       <c r="E33" s="1">
-        <v>0.36880180000000001</v>
+        <v>59.556510000000003</v>
       </c>
       <c r="F33" s="1">
-        <v>0.77765850000000003</v>
+        <v>-0.34210649999999998</v>
       </c>
       <c r="G33" s="1">
+        <v>0.1842847</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.38858419999999999</v>
+      </c>
+      <c r="I33" s="1">
+        <v>151.68969999999999</v>
+      </c>
+      <c r="J33" s="1">
         <v>419.55650000000003</v>
       </c>
-      <c r="H33" s="1">
+      <c r="K33" s="1">
+        <v>365.65609999999998</v>
+      </c>
+      <c r="L33" s="1">
+        <v>31</v>
+      </c>
+      <c r="M33" s="1">
         <v>645</v>
       </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
+      <c r="N33" s="1">
+        <v>130.58330000000001</v>
+      </c>
+      <c r="O33" s="1">
+        <v>124.41670000000001</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0.52032509999999998</v>
+      </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1.067734</v>
       </c>
       <c r="B34" s="1">
-        <v>3.7289120000000002E-2</v>
+        <v>1.863281E-2</v>
       </c>
       <c r="C34" s="1">
-        <v>0.1160982</v>
+        <v>5.8012510000000003E-2</v>
       </c>
       <c r="D34" s="1">
-        <v>-0.76982010000000001</v>
+        <v>6.093138E-2</v>
       </c>
       <c r="E34" s="1">
-        <v>0.2158368</v>
+        <v>72.193709999999996</v>
       </c>
       <c r="F34" s="1">
-        <v>0.79950520000000003</v>
+        <v>-0.38466739999999999</v>
       </c>
       <c r="G34" s="1">
+        <v>0.1078504</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.39950059999999998</v>
+      </c>
+      <c r="I34" s="1">
+        <v>164.33789999999999</v>
+      </c>
+      <c r="J34" s="1">
         <v>432.19369999999998</v>
       </c>
-      <c r="H34" s="1">
+      <c r="K34" s="1">
+        <v>380.14550000000003</v>
+      </c>
+      <c r="L34" s="1">
+        <v>32</v>
+      </c>
+      <c r="M34" s="1">
         <v>646</v>
       </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
+      <c r="N34" s="1">
+        <v>123</v>
+      </c>
+      <c r="O34" s="1">
+        <v>123</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.53376489999999999</v>
+      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1.1011010000000001</v>
       </c>
       <c r="B35" s="1">
-        <v>1.0651590000000001E-2</v>
+        <v>5.3224379999999996E-3</v>
       </c>
       <c r="C35" s="1">
-        <v>0.1199378</v>
+        <v>5.9931100000000001E-2</v>
       </c>
       <c r="D35" s="1">
-        <v>-0.77443870000000004</v>
+        <v>6.016697E-2</v>
       </c>
       <c r="E35" s="1">
-        <v>6.6429630000000003E-2</v>
+        <v>84.92492</v>
       </c>
       <c r="F35" s="1">
-        <v>0.77728260000000005</v>
+        <v>-0.38697530000000002</v>
       </c>
       <c r="G35" s="1">
+        <v>3.3193880000000002E-2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.38839630000000003</v>
+      </c>
+      <c r="I35" s="1">
+        <v>175.09729999999999</v>
+      </c>
+      <c r="J35" s="1">
         <v>444.92489999999998</v>
       </c>
-      <c r="H35" s="1">
+      <c r="K35" s="1">
+        <v>368.86099999999999</v>
+      </c>
+      <c r="L35" s="1">
+        <v>33</v>
+      </c>
+      <c r="M35" s="1">
         <v>647</v>
       </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
+      <c r="N35" s="1">
+        <v>115</v>
+      </c>
+      <c r="O35" s="1">
+        <v>122.08329999999999</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0.54721280000000005</v>
+      </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1.134468</v>
       </c>
       <c r="B36" s="1">
-        <v>-1.439181E-2</v>
+        <v>-7.1913680000000001E-3</v>
       </c>
       <c r="C36" s="1">
-        <v>0.12053129999999999</v>
+        <v>6.0227650000000001E-2</v>
       </c>
       <c r="D36" s="1">
-        <v>-0.75703750000000003</v>
+        <v>6.0655470000000003E-2</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.1026442</v>
+        <v>96.809060000000002</v>
       </c>
       <c r="F36" s="1">
-        <v>0.76396439999999999</v>
+        <v>-0.37828010000000001</v>
       </c>
       <c r="G36" s="1">
+        <v>-5.1289729999999999E-2</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.38174140000000001</v>
+      </c>
+      <c r="I36" s="1">
+        <v>-172.27850000000001</v>
+      </c>
+      <c r="J36" s="1">
         <v>456.8091</v>
       </c>
-      <c r="H36" s="1">
+      <c r="K36" s="1">
+        <v>367.05309999999997</v>
+      </c>
+      <c r="L36" s="1">
+        <v>34</v>
+      </c>
+      <c r="M36" s="1">
         <v>648</v>
       </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
+      <c r="N36" s="1">
+        <v>107.58329999999999</v>
+      </c>
+      <c r="O36" s="1">
+        <v>122.16670000000001</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0.55973019999999996</v>
+      </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1.167835</v>
       </c>
       <c r="B37" s="1">
-        <v>-3.9868090000000002E-2</v>
+        <v>-1.9921479999999998E-2</v>
       </c>
       <c r="C37" s="1">
-        <v>0.11308799999999999</v>
+        <v>5.6508360000000001E-2</v>
       </c>
       <c r="D37" s="1">
-        <v>-0.72816360000000002</v>
+        <v>5.9917110000000003E-2</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.24123349999999999</v>
+        <v>109.4196</v>
       </c>
       <c r="F37" s="1">
-        <v>0.76708270000000001</v>
+        <v>-0.36385230000000002</v>
       </c>
       <c r="G37" s="1">
+        <v>-0.1205407</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.38329960000000002</v>
+      </c>
+      <c r="I37" s="1">
+        <v>-161.6705</v>
+      </c>
+      <c r="J37" s="1">
         <v>469.4196</v>
       </c>
-      <c r="H37" s="1">
+      <c r="K37" s="1">
+        <v>363.9194</v>
+      </c>
+      <c r="L37" s="1">
+        <v>35</v>
+      </c>
+      <c r="M37" s="1">
         <v>649</v>
       </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
+      <c r="N37" s="1">
+        <v>99.666669999999996</v>
+      </c>
+      <c r="O37" s="1">
+        <v>123.66670000000001</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0.57299250000000002</v>
+      </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1.201201</v>
       </c>
       <c r="B38" s="1">
-        <v>-6.2984639999999995E-2</v>
+        <v>-3.1472470000000002E-2</v>
       </c>
       <c r="C38" s="1">
-        <v>0.1044329</v>
+        <v>5.2183559999999997E-2</v>
       </c>
       <c r="D38" s="1">
-        <v>-0.64157969999999998</v>
+        <v>6.0939640000000003E-2</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.35429670000000002</v>
+        <v>121.0946</v>
       </c>
       <c r="F38" s="1">
-        <v>0.73290569999999999</v>
+        <v>-0.32058759999999997</v>
       </c>
       <c r="G38" s="1">
+        <v>-0.17703669999999999</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.36622179999999999</v>
+      </c>
+      <c r="I38" s="1">
+        <v>-151.09139999999999</v>
+      </c>
+      <c r="J38" s="1">
         <v>481.09460000000001</v>
       </c>
-      <c r="H38" s="1">
+      <c r="K38" s="1">
+        <v>349.61189999999999</v>
+      </c>
+      <c r="L38" s="1">
+        <v>36</v>
+      </c>
+      <c r="M38" s="1">
         <v>650</v>
       </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
+      <c r="N38" s="1">
+        <v>92.166669999999996</v>
+      </c>
+      <c r="O38" s="1">
+        <v>125.25</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0.58532649999999997</v>
+      </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1.2345680000000001</v>
       </c>
       <c r="B39" s="1">
-        <v>-8.2682889999999995E-2</v>
+        <v>-4.131539E-2</v>
       </c>
       <c r="C39" s="1">
-        <v>8.9444570000000001E-2</v>
+        <v>4.46941E-2</v>
       </c>
       <c r="D39" s="1">
-        <v>-0.55067330000000003</v>
+        <v>6.0864799999999997E-2</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.5107254</v>
+        <v>132.75040000000001</v>
       </c>
       <c r="F39" s="1">
-        <v>0.75105359999999999</v>
+        <v>-0.27516309999999999</v>
       </c>
       <c r="G39" s="1">
+        <v>-0.25520169999999998</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.37529010000000002</v>
+      </c>
+      <c r="I39" s="1">
+        <v>-137.15539999999999</v>
+      </c>
+      <c r="J39" s="1">
         <v>492.75040000000001</v>
       </c>
-      <c r="H39" s="1">
+      <c r="K39" s="1">
+        <v>355.2441</v>
+      </c>
+      <c r="L39" s="1">
+        <v>37</v>
+      </c>
+      <c r="M39" s="1">
         <v>651</v>
       </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
+      <c r="N39" s="1">
+        <v>85.916669999999996</v>
+      </c>
+      <c r="O39" s="1">
+        <v>128.33330000000001</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0.59769479999999997</v>
+      </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1.267935</v>
       </c>
       <c r="B40" s="1">
-        <v>-9.9732940000000006E-2</v>
+        <v>-4.9835039999999997E-2</v>
       </c>
       <c r="C40" s="1">
-        <v>7.0350510000000005E-2</v>
+        <v>3.5153080000000003E-2</v>
       </c>
       <c r="D40" s="1">
-        <v>-0.45407039999999999</v>
+        <v>6.0985820000000003E-2</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.62164109999999995</v>
+        <v>144.8013</v>
       </c>
       <c r="F40" s="1">
-        <v>0.76981659999999996</v>
+        <v>-0.22689210000000001</v>
       </c>
       <c r="G40" s="1">
+        <v>-0.31062459999999997</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.3846657</v>
+      </c>
+      <c r="I40" s="1">
+        <v>-126.14579999999999</v>
+      </c>
+      <c r="J40" s="1">
         <v>504.80130000000003</v>
       </c>
-      <c r="H40" s="1">
+      <c r="K40" s="1">
+        <v>363.37209999999999</v>
+      </c>
+      <c r="L40" s="1">
+        <v>38</v>
+      </c>
+      <c r="M40" s="1">
         <v>652</v>
       </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
+      <c r="N40" s="1">
+        <v>79.75</v>
+      </c>
+      <c r="O40" s="1">
+        <v>131.66669999999999</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0.61048610000000003</v>
+      </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1.301301</v>
       </c>
       <c r="B41" s="1">
-        <v>-0.1129846</v>
+        <v>-5.645667E-2</v>
       </c>
       <c r="C41" s="1">
-        <v>4.7960339999999997E-2</v>
+        <v>2.396506E-2</v>
       </c>
       <c r="D41" s="1">
-        <v>-0.31635780000000002</v>
+        <v>6.1332530000000003E-2</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.71665730000000005</v>
+        <v>156.99950000000001</v>
       </c>
       <c r="F41" s="1">
-        <v>0.78337730000000005</v>
+        <v>-0.1580792</v>
       </c>
       <c r="G41" s="1">
+        <v>-0.3581028</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.39144180000000001</v>
+      </c>
+      <c r="I41" s="1">
+        <v>-113.8184</v>
+      </c>
+      <c r="J41" s="1">
         <v>516.99950000000001</v>
       </c>
-      <c r="H41" s="1">
+      <c r="K41" s="1">
+        <v>369.22910000000002</v>
+      </c>
+      <c r="L41" s="1">
+        <v>39</v>
+      </c>
+      <c r="M41" s="1">
         <v>653</v>
       </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
+      <c r="N41" s="1">
+        <v>74.083330000000004</v>
+      </c>
+      <c r="O41" s="1">
+        <v>135.75</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0.62348680000000001</v>
+      </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1.334668</v>
       </c>
       <c r="B42" s="1">
-        <v>-0.1208446</v>
+        <v>-6.0384199999999999E-2</v>
       </c>
       <c r="C42" s="1">
-        <v>2.252552E-2</v>
+        <v>1.1255660000000001E-2</v>
       </c>
       <c r="D42" s="1">
-        <v>-0.13584589999999999</v>
+        <v>6.1424279999999998E-2</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.73451750000000005</v>
+        <v>169.44120000000001</v>
       </c>
       <c r="F42" s="1">
-        <v>0.74697389999999997</v>
+        <v>-6.788015E-2</v>
       </c>
       <c r="G42" s="1">
+        <v>-0.3670273</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.37325150000000001</v>
+      </c>
+      <c r="I42" s="1">
+        <v>-100.4782</v>
+      </c>
+      <c r="J42" s="1">
         <v>529.44119999999998</v>
       </c>
-      <c r="H42" s="1">
+      <c r="K42" s="1">
+        <v>352.09500000000003</v>
+      </c>
+      <c r="L42" s="1">
+        <v>40</v>
+      </c>
+      <c r="M42" s="1">
         <v>654</v>
       </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
+      <c r="N42" s="1">
+        <v>69.583330000000004</v>
+      </c>
+      <c r="O42" s="1">
+        <v>140.66669999999999</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0.63678920000000006</v>
+      </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1.3680349999999999</v>
       </c>
       <c r="B43" s="1">
-        <v>-0.12205000000000001</v>
+        <v>-6.0986539999999999E-2</v>
       </c>
       <c r="C43" s="1">
-        <v>-1.0565049999999999E-3</v>
+        <v>-5.2791939999999999E-4</v>
       </c>
       <c r="D43" s="1">
-        <v>1.198103E-2</v>
+        <v>6.0988819999999999E-2</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.71443509999999999</v>
+        <v>-179.50399999999999</v>
       </c>
       <c r="F43" s="1">
-        <v>0.71453560000000005</v>
+        <v>5.9867399999999999E-3</v>
       </c>
       <c r="G43" s="1">
+        <v>-0.35699239999999999</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.35704259999999999</v>
+      </c>
+      <c r="I43" s="1">
+        <v>-89.039240000000007</v>
+      </c>
+      <c r="J43" s="1">
         <v>540.49599999999998</v>
       </c>
-      <c r="H43" s="1">
+      <c r="K43" s="1">
+        <v>335.54300000000001</v>
+      </c>
+      <c r="L43" s="1">
+        <v>41</v>
+      </c>
+      <c r="M43" s="1">
         <v>655</v>
       </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
+      <c r="N43" s="1">
+        <v>66.083330000000004</v>
+      </c>
+      <c r="O43" s="1">
+        <v>145.16669999999999</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0.6485881</v>
+      </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1.4014009999999999</v>
       </c>
       <c r="B44" s="1">
-        <v>-0.120045</v>
+        <v>-5.998469E-2</v>
       </c>
       <c r="C44" s="1">
-        <v>-2.5151159999999999E-2</v>
+        <v>-1.256765E-2</v>
       </c>
       <c r="D44" s="1">
-        <v>0.13929510000000001</v>
+        <v>6.1287099999999997E-2</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.71918079999999995</v>
+        <v>-168.1669</v>
       </c>
       <c r="F44" s="1">
-        <v>0.73254629999999998</v>
+        <v>6.9603650000000003E-2</v>
       </c>
       <c r="G44" s="1">
+        <v>-0.35936370000000001</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.36604229999999999</v>
+      </c>
+      <c r="I44" s="1">
+        <v>-79.038349999999994</v>
+      </c>
+      <c r="J44" s="1">
         <v>551.83309999999994</v>
       </c>
-      <c r="H44" s="1">
+      <c r="K44" s="1">
+        <v>344.8621</v>
+      </c>
+      <c r="L44" s="1">
+        <v>42</v>
+      </c>
+      <c r="M44" s="1">
         <v>656</v>
       </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
+      <c r="N44" s="1">
+        <v>63.75</v>
+      </c>
+      <c r="O44" s="1">
+        <v>149.58330000000001</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0.66066950000000002</v>
+      </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1.434768</v>
       </c>
       <c r="B45" s="1">
-        <v>-0.1127544</v>
+        <v>-5.634165E-2</v>
       </c>
       <c r="C45" s="1">
-        <v>-4.9049879999999997E-2</v>
+        <v>-2.450948E-2</v>
       </c>
       <c r="D45" s="1">
-        <v>0.27917409999999998</v>
+        <v>6.1441809999999999E-2</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.6806236</v>
+        <v>-156.49019999999999</v>
       </c>
       <c r="F45" s="1">
-        <v>0.73565389999999997</v>
+        <v>0.13949909999999999</v>
       </c>
       <c r="G45" s="1">
+        <v>-0.34009729999999999</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.36759510000000001</v>
+      </c>
+      <c r="I45" s="1">
+        <v>-67.697839999999999</v>
+      </c>
+      <c r="J45" s="1">
         <v>563.50980000000004</v>
       </c>
-      <c r="H45" s="1">
+      <c r="K45" s="1">
+        <v>344.65140000000002</v>
+      </c>
+      <c r="L45" s="1">
+        <v>43</v>
+      </c>
+      <c r="M45" s="1">
         <v>657</v>
       </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
+      <c r="N45" s="1">
+        <v>61.833329999999997</v>
+      </c>
+      <c r="O45" s="1">
+        <v>153.83330000000001</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0.67315460000000005</v>
+      </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1.468135</v>
       </c>
       <c r="B46" s="1">
-        <v>-0.1014148</v>
+        <v>-5.0675440000000002E-2</v>
       </c>
       <c r="C46" s="1">
-        <v>-7.0571490000000001E-2</v>
+        <v>-3.5263500000000003E-2</v>
       </c>
       <c r="D46" s="1">
-        <v>0.42827470000000001</v>
+        <v>6.1737470000000003E-2</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.59875129999999999</v>
+        <v>-145.1671</v>
       </c>
       <c r="F46" s="1">
-        <v>0.73615370000000002</v>
+        <v>0.21400240000000001</v>
       </c>
       <c r="G46" s="1">
+        <v>-0.29918689999999998</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.36784480000000003</v>
+      </c>
+      <c r="I46" s="1">
+        <v>-54.424630000000001</v>
+      </c>
+      <c r="J46" s="1">
         <v>574.8329</v>
       </c>
-      <c r="H46" s="1">
+      <c r="K46" s="1">
+        <v>345.98250000000002</v>
+      </c>
+      <c r="L46" s="1">
+        <v>44</v>
+      </c>
+      <c r="M46" s="1">
         <v>658</v>
       </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
+      <c r="N46" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="O46" s="1">
+        <v>157.83330000000001</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0.68531010000000003</v>
+      </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1.5015019999999999</v>
       </c>
       <c r="B47" s="1">
-        <v>-8.4174150000000003E-2</v>
+        <v>-4.2060550000000002E-2</v>
       </c>
       <c r="C47" s="1">
-        <v>-8.9006589999999997E-2</v>
+        <v>-4.4475239999999999E-2</v>
       </c>
       <c r="D47" s="1">
-        <v>0.55449809999999999</v>
+        <v>6.1213860000000002E-2</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.50304090000000001</v>
+        <v>-133.4016</v>
       </c>
       <c r="F47" s="1">
-        <v>0.7486777</v>
+        <v>0.2770743</v>
       </c>
       <c r="G47" s="1">
+        <v>-0.25136190000000003</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.37410290000000002</v>
+      </c>
+      <c r="I47" s="1">
+        <v>-42.214329999999997</v>
+      </c>
+      <c r="J47" s="1">
         <v>586.59839999999997</v>
       </c>
-      <c r="H47" s="1">
+      <c r="K47" s="1">
+        <v>351.1035</v>
+      </c>
+      <c r="L47" s="1">
+        <v>45</v>
+      </c>
+      <c r="M47" s="1">
         <v>659</v>
       </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
+      <c r="N47" s="1">
+        <v>60.333329999999997</v>
+      </c>
+      <c r="O47" s="1">
+        <v>161.5</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0.6979225</v>
+      </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1.5348679999999999</v>
       </c>
       <c r="B48" s="1">
-        <v>-6.4411259999999998E-2</v>
+        <v>-3.2185329999999998E-2</v>
       </c>
       <c r="C48" s="1">
-        <v>-0.1041411</v>
-      </c>
-      <c r="G48" s="1">
+        <v>-5.2037739999999999E-2</v>
+      </c>
+      <c r="D48" s="1">
+        <v>6.1186780000000003E-2</v>
+      </c>
+      <c r="E48" s="1">
+        <v>-121.7368</v>
+      </c>
+      <c r="J48" s="1">
         <v>598.26319999999998</v>
       </c>
-      <c r="H48" s="1">
+      <c r="L48" s="1">
+        <v>46</v>
+      </c>
+      <c r="M48" s="1">
         <v>660</v>
       </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-    </row>
-    <row r="49" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
+      <c r="N48" s="1">
+        <v>61.166670000000003</v>
+      </c>
+      <c r="O48" s="1">
+        <v>164.58330000000001</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0.71036080000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
